--- a/data/sheet/msg_41473.xlsx
+++ b/data/sheet/msg_41473.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="158">
   <si>
     <t/>
   </si>
@@ -440,6 +440,63 @@
   <si>
     <t>2022-03-18 15:23:00</t>
   </si>
+  <si>
+    <t>2022-03-20 07:29:34</t>
+  </si>
+  <si>
+    <t>2022-03-20 07:36:32</t>
+  </si>
+  <si>
+    <t>2022-03-20 07:39:44</t>
+  </si>
+  <si>
+    <t>2022-03-20 07:46:57</t>
+  </si>
+  <si>
+    <t>2022-03-20 07:49:05</t>
+  </si>
+  <si>
+    <t>2022-03-20 07:50:11</t>
+  </si>
+  <si>
+    <t>2022-03-20 07:52:20</t>
+  </si>
+  <si>
+    <t>2022-03-20 07:53:04</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:23:27</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:19:43</t>
+  </si>
+  <si>
+    <t>2022-03-21 09:32:55</t>
+  </si>
+  <si>
+    <t>2022-03-21 09:34:40</t>
+  </si>
+  <si>
+    <t>2022-03-21 09:38:57</t>
+  </si>
+  <si>
+    <t>2022-03-21 09:57:59</t>
+  </si>
+  <si>
+    <t>2022-03-21 09:59:22</t>
+  </si>
+  <si>
+    <t>2022-03-21 10:01:21</t>
+  </si>
+  <si>
+    <t>2022-03-21 10:02:12</t>
+  </si>
+  <si>
+    <t>2022-03-21 10:03:17</t>
+  </si>
+  <si>
+    <t>2022-03-21 10:55:46</t>
+  </si>
 </sst>
 </file>
 
@@ -791,7 +848,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3557,6 +3614,557 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>139</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.647757774E9</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>140</v>
+      </c>
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.647758192E9</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>141</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.647758384E9</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>142</v>
+      </c>
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.647758817E9</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>143</v>
+      </c>
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.647758944E9</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>144</v>
+      </c>
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1.647759011E9</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>145</v>
+      </c>
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1.64775914E9</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>146</v>
+      </c>
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1.647759184E9</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>147</v>
+      </c>
+      <c r="B104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.647761007E9</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>148</v>
+      </c>
+      <c r="B105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.647764383E9</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>149</v>
+      </c>
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.647851576E9</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>150</v>
+      </c>
+      <c r="B107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.647851681E9</v>
+      </c>
+      <c r="E107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>151</v>
+      </c>
+      <c r="B108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.647851938E9</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>152</v>
+      </c>
+      <c r="B109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.64785308E9</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>153</v>
+      </c>
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.647853163E9</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>154</v>
+      </c>
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.647853282E9</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>155</v>
+      </c>
+      <c r="B112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.647853333E9</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>156</v>
+      </c>
+      <c r="B113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.647853398E9</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>157</v>
+      </c>
+      <c r="B114" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.647856548E9</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3564,7 +4172,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X95"/>
+  <dimension ref="A1:X114"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0"/>
   </sheetViews>
@@ -10605,6 +11213,1412 @@
         <v>0</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>139</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.647757773E9</v>
+      </c>
+      <c r="K96" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="L96" t="s">
+        <v>0</v>
+      </c>
+      <c r="M96" t="s">
+        <v>0</v>
+      </c>
+      <c r="N96" t="s">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>140</v>
+      </c>
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.647758191E9</v>
+      </c>
+      <c r="K97" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L97" t="s">
+        <v>0</v>
+      </c>
+      <c r="M97" t="s">
+        <v>0</v>
+      </c>
+      <c r="N97" t="s">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>141</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.647758383E9</v>
+      </c>
+      <c r="K98" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="L98" t="s">
+        <v>0</v>
+      </c>
+      <c r="M98" t="s">
+        <v>0</v>
+      </c>
+      <c r="N98" t="s">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>142</v>
+      </c>
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.647758817E9</v>
+      </c>
+      <c r="K99" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="L99" t="s">
+        <v>0</v>
+      </c>
+      <c r="M99" t="s">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X99" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>143</v>
+      </c>
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.647758944E9</v>
+      </c>
+      <c r="K100" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="L100" t="s">
+        <v>0</v>
+      </c>
+      <c r="M100" t="s">
+        <v>0</v>
+      </c>
+      <c r="N100" t="s">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X100" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>144</v>
+      </c>
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.647759011E9</v>
+      </c>
+      <c r="K101" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="L101" t="s">
+        <v>0</v>
+      </c>
+      <c r="M101" t="s">
+        <v>0</v>
+      </c>
+      <c r="N101" t="s">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X101" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>145</v>
+      </c>
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.64775914E9</v>
+      </c>
+      <c r="K102" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L102" t="s">
+        <v>0</v>
+      </c>
+      <c r="M102" t="s">
+        <v>0</v>
+      </c>
+      <c r="N102" t="s">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X102" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>146</v>
+      </c>
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.64775914E9</v>
+      </c>
+      <c r="K103" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L103" t="s">
+        <v>0</v>
+      </c>
+      <c r="M103" t="s">
+        <v>0</v>
+      </c>
+      <c r="N103" t="s">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X103" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>147</v>
+      </c>
+      <c r="B104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.647761007E9</v>
+      </c>
+      <c r="K104" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="L104" t="s">
+        <v>0</v>
+      </c>
+      <c r="M104" t="s">
+        <v>0</v>
+      </c>
+      <c r="N104" t="s">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X104" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>148</v>
+      </c>
+      <c r="B105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.647764382E9</v>
+      </c>
+      <c r="K105" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L105" t="s">
+        <v>0</v>
+      </c>
+      <c r="M105" t="s">
+        <v>0</v>
+      </c>
+      <c r="N105" t="s">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X105" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>149</v>
+      </c>
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.647851575E9</v>
+      </c>
+      <c r="K106" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="L106" t="s">
+        <v>0</v>
+      </c>
+      <c r="M106" t="s">
+        <v>45</v>
+      </c>
+      <c r="N106" t="s">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X106" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>150</v>
+      </c>
+      <c r="B107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.647851681E9</v>
+      </c>
+      <c r="K107" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="L107" t="s">
+        <v>0</v>
+      </c>
+      <c r="M107" t="s">
+        <v>0</v>
+      </c>
+      <c r="N107" t="s">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X107" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>151</v>
+      </c>
+      <c r="B108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.647851937E9</v>
+      </c>
+      <c r="K108" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L108" t="s">
+        <v>0</v>
+      </c>
+      <c r="M108" t="s">
+        <v>0</v>
+      </c>
+      <c r="N108" t="s">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X108" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>152</v>
+      </c>
+      <c r="B109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.647853079E9</v>
+      </c>
+      <c r="K109" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L109" t="s">
+        <v>0</v>
+      </c>
+      <c r="M109" t="s">
+        <v>0</v>
+      </c>
+      <c r="N109" t="s">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X109" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>153</v>
+      </c>
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.647853162E9</v>
+      </c>
+      <c r="K110" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="L110" t="s">
+        <v>0</v>
+      </c>
+      <c r="M110" t="s">
+        <v>0</v>
+      </c>
+      <c r="N110" t="s">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X110" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>154</v>
+      </c>
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.647853282E9</v>
+      </c>
+      <c r="K111" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L111" t="s">
+        <v>0</v>
+      </c>
+      <c r="M111" t="s">
+        <v>0</v>
+      </c>
+      <c r="N111" t="s">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X111" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>155</v>
+      </c>
+      <c r="B112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.647853282E9</v>
+      </c>
+      <c r="K112" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="L112" t="s">
+        <v>0</v>
+      </c>
+      <c r="M112" t="s">
+        <v>0</v>
+      </c>
+      <c r="N112" t="s">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X112" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>156</v>
+      </c>
+      <c r="B113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.647853398E9</v>
+      </c>
+      <c r="K113" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="L113" t="s">
+        <v>0</v>
+      </c>
+      <c r="M113" t="s">
+        <v>0</v>
+      </c>
+      <c r="N113" t="s">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X113" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>157</v>
+      </c>
+      <c r="B114" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1.647856547E9</v>
+      </c>
+      <c r="K114" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="L114" t="s">
+        <v>0</v>
+      </c>
+      <c r="M114" t="s">
+        <v>0</v>
+      </c>
+      <c r="N114" t="s">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X114" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10612,7 +12626,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M283"/>
+  <dimension ref="A1:M340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A278" sqref="A278:XFD280"/>
@@ -22227,6 +24241,2343 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>139</v>
+      </c>
+      <c r="B284" t="s">
+        <v>0</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F284" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G284" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H284" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I284" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L284" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>139</v>
+      </c>
+      <c r="B285" t="s">
+        <v>0</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F285" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G285" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H285" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I285" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>139</v>
+      </c>
+      <c r="B286" t="s">
+        <v>0</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F286" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G286" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H286" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I286" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J286" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L286" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>140</v>
+      </c>
+      <c r="B287" t="s">
+        <v>0</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F287" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G287" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H287" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I287" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J287" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L287" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>140</v>
+      </c>
+      <c r="B288" t="s">
+        <v>0</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F288" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G288" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H288" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I288" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J288" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L288" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M288" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>140</v>
+      </c>
+      <c r="B289" t="s">
+        <v>0</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F289" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G289" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H289" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I289" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J289" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L289" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>141</v>
+      </c>
+      <c r="B290" t="s">
+        <v>0</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F290" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G290" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H290" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I290" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J290" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L290" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>141</v>
+      </c>
+      <c r="B291" t="s">
+        <v>0</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F291" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G291" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H291" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I291" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J291" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L291" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M291" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>141</v>
+      </c>
+      <c r="B292" t="s">
+        <v>0</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F292" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G292" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H292" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I292" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J292" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L292" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>142</v>
+      </c>
+      <c r="B293" t="s">
+        <v>0</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F293" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G293" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H293" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I293" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L293" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>142</v>
+      </c>
+      <c r="B294" t="s">
+        <v>0</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F294" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G294" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H294" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I294" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L294" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M294" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>142</v>
+      </c>
+      <c r="B295" t="s">
+        <v>0</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D295" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F295" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G295" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H295" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I295" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L295" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>143</v>
+      </c>
+      <c r="B296" t="s">
+        <v>0</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F296" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G296" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H296" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I296" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>143</v>
+      </c>
+      <c r="B297" t="s">
+        <v>0</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F297" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G297" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H297" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I297" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L297" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M297" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>143</v>
+      </c>
+      <c r="B298" t="s">
+        <v>0</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F298" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G298" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H298" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I298" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J298" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L298" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M298" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>144</v>
+      </c>
+      <c r="B299" t="s">
+        <v>0</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F299" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G299" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H299" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I299" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L299" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M299" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>144</v>
+      </c>
+      <c r="B300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F300" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G300" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H300" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I300" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L300" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>144</v>
+      </c>
+      <c r="B301" t="s">
+        <v>0</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F301" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G301" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H301" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I301" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L301" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>145</v>
+      </c>
+      <c r="B302" t="s">
+        <v>0</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F302" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G302" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H302" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I302" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J302" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>145</v>
+      </c>
+      <c r="B303" t="s">
+        <v>0</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D303" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F303" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G303" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H303" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I303" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J303" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L303" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>145</v>
+      </c>
+      <c r="B304" t="s">
+        <v>0</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F304" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G304" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H304" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I304" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J304" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>146</v>
+      </c>
+      <c r="B305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F305" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G305" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H305" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I305" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J305" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L305" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>146</v>
+      </c>
+      <c r="B306" t="s">
+        <v>0</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F306" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G306" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H306" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I306" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J306" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M306" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>146</v>
+      </c>
+      <c r="B307" t="s">
+        <v>0</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D307" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F307" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G307" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H307" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I307" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J307" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M307" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>147</v>
+      </c>
+      <c r="B308" t="s">
+        <v>0</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F308" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G308" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H308" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I308" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J308" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L308" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>147</v>
+      </c>
+      <c r="B309" t="s">
+        <v>0</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F309" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G309" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H309" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I309" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J309" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L309" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M309" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>147</v>
+      </c>
+      <c r="B310" t="s">
+        <v>0</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F310" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G310" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H310" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I310" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J310" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M310" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>148</v>
+      </c>
+      <c r="B311" t="s">
+        <v>0</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D311" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F311" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G311" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H311" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I311" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J311" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M311" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>148</v>
+      </c>
+      <c r="B312" t="s">
+        <v>0</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D312" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F312" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G312" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H312" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I312" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J312" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L312" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M312" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>148</v>
+      </c>
+      <c r="B313" t="s">
+        <v>0</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D313" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F313" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G313" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H313" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I313" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J313" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L313" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M313" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>149</v>
+      </c>
+      <c r="B314" t="s">
+        <v>0</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D314" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F314" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G314" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H314" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I314" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J314" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L314" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M314" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>149</v>
+      </c>
+      <c r="B315" t="s">
+        <v>0</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F315" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G315" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H315" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I315" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J315" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L315" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M315" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>149</v>
+      </c>
+      <c r="B316" t="s">
+        <v>0</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F316" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G316" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H316" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I316" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J316" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L316" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M316" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>150</v>
+      </c>
+      <c r="B317" t="s">
+        <v>0</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D317" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F317" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G317" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H317" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I317" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J317" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L317" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M317" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>150</v>
+      </c>
+      <c r="B318" t="s">
+        <v>0</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D318" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F318" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G318" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H318" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I318" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J318" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L318" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M318" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>150</v>
+      </c>
+      <c r="B319" t="s">
+        <v>0</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D319" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F319" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G319" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H319" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I319" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J319" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L319" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M319" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>151</v>
+      </c>
+      <c r="B320" t="s">
+        <v>0</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F320" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G320" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H320" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I320" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J320" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L320" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M320" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>151</v>
+      </c>
+      <c r="B321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D321" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F321" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G321" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H321" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I321" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J321" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L321" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M321" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>151</v>
+      </c>
+      <c r="B322" t="s">
+        <v>0</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D322" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F322" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G322" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H322" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I322" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J322" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L322" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M322" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>152</v>
+      </c>
+      <c r="B323" t="s">
+        <v>0</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D323" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F323" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G323" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H323" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I323" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J323" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L323" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M323" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>152</v>
+      </c>
+      <c r="B324" t="s">
+        <v>0</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D324" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F324" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G324" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H324" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I324" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J324" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L324" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M324" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>152</v>
+      </c>
+      <c r="B325" t="s">
+        <v>0</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F325" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G325" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H325" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I325" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J325" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L325" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M325" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>153</v>
+      </c>
+      <c r="B326" t="s">
+        <v>0</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D326" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F326" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G326" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H326" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I326" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J326" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L326" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M326" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>153</v>
+      </c>
+      <c r="B327" t="s">
+        <v>0</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D327" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F327" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G327" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H327" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I327" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J327" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L327" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M327" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>153</v>
+      </c>
+      <c r="B328" t="s">
+        <v>0</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D328" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F328" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G328" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H328" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I328" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J328" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L328" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M328" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>154</v>
+      </c>
+      <c r="B329" t="s">
+        <v>0</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D329" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F329" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G329" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H329" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I329" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J329" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L329" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M329" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>154</v>
+      </c>
+      <c r="B330" t="s">
+        <v>0</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D330" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F330" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G330" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H330" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I330" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J330" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M330" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>154</v>
+      </c>
+      <c r="B331" t="s">
+        <v>0</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D331" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F331" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G331" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H331" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I331" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J331" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L331" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M331" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>155</v>
+      </c>
+      <c r="B332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D332" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F332" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G332" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H332" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I332" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J332" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L332" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M332" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>155</v>
+      </c>
+      <c r="B333" t="s">
+        <v>0</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D333" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E333" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F333" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G333" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H333" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I333" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J333" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L333" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M333" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>155</v>
+      </c>
+      <c r="B334" t="s">
+        <v>0</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D334" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F334" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G334" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H334" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I334" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J334" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L334" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M334" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>156</v>
+      </c>
+      <c r="B335" t="s">
+        <v>0</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D335" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F335" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G335" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H335" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I335" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J335" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L335" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M335" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>156</v>
+      </c>
+      <c r="B336" t="s">
+        <v>0</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D336" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F336" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G336" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H336" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I336" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J336" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L336" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M336" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>156</v>
+      </c>
+      <c r="B337" t="s">
+        <v>0</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D337" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F337" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G337" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H337" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I337" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J337" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L337" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M337" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>157</v>
+      </c>
+      <c r="B338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D338" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E338" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F338" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G338" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H338" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I338" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J338" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L338" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M338" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>157</v>
+      </c>
+      <c r="B339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D339" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E339" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F339" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G339" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H339" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I339" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J339" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L339" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M339" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>157</v>
+      </c>
+      <c r="B340" t="s">
+        <v>0</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D340" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E340" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F340" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G340" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H340" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I340" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J340" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L340" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M340" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_41473.xlsx
+++ b/data/sheet/msg_41473.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="160">
   <si>
     <t/>
   </si>
@@ -497,6 +497,12 @@
   <si>
     <t>2022-03-21 10:55:46</t>
   </si>
+  <si>
+    <t>2022-03-21 13:46:34</t>
+  </si>
+  <si>
+    <t>2022-03-21 13:47:36</t>
+  </si>
 </sst>
 </file>
 
@@ -848,7 +854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4165,6 +4171,64 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>158</v>
+      </c>
+      <c r="B115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.647866795E9</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>159</v>
+      </c>
+      <c r="B116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.647866858E9</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4172,7 +4236,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X114"/>
+  <dimension ref="A1:X116"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0"/>
   </sheetViews>
@@ -12619,6 +12683,154 @@
         <v>0</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>158</v>
+      </c>
+      <c r="B115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.647866795E9</v>
+      </c>
+      <c r="K115" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="L115" t="s">
+        <v>0</v>
+      </c>
+      <c r="M115" t="s">
+        <v>0</v>
+      </c>
+      <c r="N115" t="s">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X115" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>159</v>
+      </c>
+      <c r="B116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1.647866857E9</v>
+      </c>
+      <c r="K116" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L116" t="s">
+        <v>0</v>
+      </c>
+      <c r="M116" t="s">
+        <v>0</v>
+      </c>
+      <c r="N116" t="s">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X116" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12626,7 +12838,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M340"/>
+  <dimension ref="A1:M346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A278" sqref="A278:XFD280"/>
@@ -26578,6 +26790,252 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>158</v>
+      </c>
+      <c r="B341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D341" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E341" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F341" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G341" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H341" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I341" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J341" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L341" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M341" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>158</v>
+      </c>
+      <c r="B342" t="s">
+        <v>0</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D342" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E342" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F342" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G342" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H342" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I342" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J342" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L342" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M342" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>158</v>
+      </c>
+      <c r="B343" t="s">
+        <v>0</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D343" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E343" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F343" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G343" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H343" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I343" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J343" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L343" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M343" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>159</v>
+      </c>
+      <c r="B344" t="s">
+        <v>0</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D344" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F344" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G344" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H344" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I344" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J344" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L344" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M344" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>159</v>
+      </c>
+      <c r="B345" t="s">
+        <v>0</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D345" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F345" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G345" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H345" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I345" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J345" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L345" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M345" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>159</v>
+      </c>
+      <c r="B346" t="s">
+        <v>0</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D346" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F346" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G346" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H346" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I346" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J346" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L346" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M346" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_41473.xlsx
+++ b/data/sheet/msg_41473.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="161">
   <si>
     <t/>
   </si>
@@ -503,6 +503,9 @@
   <si>
     <t>2022-03-21 13:47:36</t>
   </si>
+  <si>
+    <t>2022-03-21 17:09:29</t>
+  </si>
 </sst>
 </file>
 
@@ -854,7 +857,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4229,6 +4232,35 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>160</v>
+      </c>
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.647878972E9</v>
+      </c>
+      <c r="E117" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4236,7 +4268,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X116"/>
+  <dimension ref="A1:X117"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0"/>
   </sheetViews>
@@ -12831,6 +12863,80 @@
         <v>0</v>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>160</v>
+      </c>
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.647878971E9</v>
+      </c>
+      <c r="K117" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L117" t="s">
+        <v>0</v>
+      </c>
+      <c r="M117" t="s">
+        <v>0</v>
+      </c>
+      <c r="N117" t="s">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X117" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12838,7 +12944,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M346"/>
+  <dimension ref="A1:M349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A278" sqref="A278:XFD280"/>
@@ -27036,6 +27142,129 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>160</v>
+      </c>
+      <c r="B347" t="s">
+        <v>0</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D347" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E347" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F347" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G347" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H347" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I347" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J347" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L347" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M347" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>160</v>
+      </c>
+      <c r="B348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D348" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E348" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F348" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G348" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H348" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I348" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J348" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L348" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M348" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>160</v>
+      </c>
+      <c r="B349" t="s">
+        <v>0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F349" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G349" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H349" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I349" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J349" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L349" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M349" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_41473.xlsx
+++ b/data/sheet/msg_41473.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3031" uniqueCount="191">
   <si>
     <t/>
   </si>
@@ -506,6 +506,96 @@
   <si>
     <t>2022-03-21 17:09:29</t>
   </si>
+  <si>
+    <t>2022-03-21 22:08:55</t>
+  </si>
+  <si>
+    <t>2022-03-22 07:30:47</t>
+  </si>
+  <si>
+    <t>2022-03-22 07:51:26</t>
+  </si>
+  <si>
+    <t>2022-03-22 08:07:37</t>
+  </si>
+  <si>
+    <t>2022-03-22 08:08:54</t>
+  </si>
+  <si>
+    <t>2022-03-22 08:16:15</t>
+  </si>
+  <si>
+    <t>2022-03-22 08:18:56</t>
+  </si>
+  <si>
+    <t>2022-03-22 08:25:26</t>
+  </si>
+  <si>
+    <t>2022-03-22 08:59:07</t>
+  </si>
+  <si>
+    <t>2022-03-22 09:01:53</t>
+  </si>
+  <si>
+    <t>2022-03-22 09:20:57</t>
+  </si>
+  <si>
+    <t>2022-03-22 09:23:33</t>
+  </si>
+  <si>
+    <t>2022-03-22 09:49:58</t>
+  </si>
+  <si>
+    <t>2022-03-22 09:54:36</t>
+  </si>
+  <si>
+    <t>2022-03-22 09:56:19</t>
+  </si>
+  <si>
+    <t>2022-03-22 10:01:14</t>
+  </si>
+  <si>
+    <t>2022-03-22 10:23:35</t>
+  </si>
+  <si>
+    <t>2022-03-22 10:27:01</t>
+  </si>
+  <si>
+    <t>2022-03-22 10:34:43</t>
+  </si>
+  <si>
+    <t>2022-03-22 10:41:12</t>
+  </si>
+  <si>
+    <t>2022-03-22 10:56:01</t>
+  </si>
+  <si>
+    <t>2022-03-22 10:57:11</t>
+  </si>
+  <si>
+    <t>2022-03-22 10:59:12</t>
+  </si>
+  <si>
+    <t>2022-03-22 11:04:16</t>
+  </si>
+  <si>
+    <t>2022-03-22 11:15:11</t>
+  </si>
+  <si>
+    <t>2022-03-22 11:20:42</t>
+  </si>
+  <si>
+    <t>2022-03-22 11:52:16</t>
+  </si>
+  <si>
+    <t>2022-03-22 11:56:49</t>
+  </si>
+  <si>
+    <t>2022-03-22 12:38:25</t>
+  </si>
+  <si>
+    <t>2022-03-22 12:42:11</t>
+  </si>
 </sst>
 </file>
 
@@ -857,7 +947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4261,6 +4351,876 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>161</v>
+      </c>
+      <c r="B118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.647896939E9</v>
+      </c>
+      <c r="E118" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>162</v>
+      </c>
+      <c r="B119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.647930647E9</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>163</v>
+      </c>
+      <c r="B120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.647931886E9</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>164</v>
+      </c>
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.647932858E9</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>165</v>
+      </c>
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.647932935E9</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>166</v>
+      </c>
+      <c r="B123" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.647933375E9</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>167</v>
+      </c>
+      <c r="B124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.647933535E9</v>
+      </c>
+      <c r="E124" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>168</v>
+      </c>
+      <c r="B125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.647933927E9</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>169</v>
+      </c>
+      <c r="B126" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.647935947E9</v>
+      </c>
+      <c r="E126" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>170</v>
+      </c>
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.647936113E9</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>171</v>
+      </c>
+      <c r="B128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.647937258E9</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>172</v>
+      </c>
+      <c r="B129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.647937414E9</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>173</v>
+      </c>
+      <c r="B130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.647938999E9</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>174</v>
+      </c>
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.647939277E9</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>175</v>
+      </c>
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.647939379E9</v>
+      </c>
+      <c r="E132" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>176</v>
+      </c>
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.647939674E9</v>
+      </c>
+      <c r="E133" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>177</v>
+      </c>
+      <c r="B134" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.647941016E9</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>178</v>
+      </c>
+      <c r="B135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.647941222E9</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>179</v>
+      </c>
+      <c r="B136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.647941684E9</v>
+      </c>
+      <c r="E136" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>180</v>
+      </c>
+      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.647942073E9</v>
+      </c>
+      <c r="E137" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>181</v>
+      </c>
+      <c r="B138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.647942962E9</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>182</v>
+      </c>
+      <c r="B139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.647943032E9</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>183</v>
+      </c>
+      <c r="B140" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.647943154E9</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>184</v>
+      </c>
+      <c r="B141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.647943457E9</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>185</v>
+      </c>
+      <c r="B142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.647944112E9</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>186</v>
+      </c>
+      <c r="B143" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.647944443E9</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>187</v>
+      </c>
+      <c r="B144" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.647946337E9</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>188</v>
+      </c>
+      <c r="B145" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.647946611E9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>189</v>
+      </c>
+      <c r="B146" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.647949107E9</v>
+      </c>
+      <c r="E146" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>190</v>
+      </c>
+      <c r="B147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.647949332E9</v>
+      </c>
+      <c r="E147" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4268,7 +5228,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X117"/>
+  <dimension ref="A1:X147"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0"/>
   </sheetViews>
@@ -12937,6 +13897,2226 @@
         <v>0</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>161</v>
+      </c>
+      <c r="B118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.647896908E9</v>
+      </c>
+      <c r="K118" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="L118" t="s">
+        <v>0</v>
+      </c>
+      <c r="M118" t="s">
+        <v>45</v>
+      </c>
+      <c r="N118" t="s">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X118" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>162</v>
+      </c>
+      <c r="B119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1.647930514E9</v>
+      </c>
+      <c r="K119" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="L119" t="s">
+        <v>0</v>
+      </c>
+      <c r="M119" t="s">
+        <v>45</v>
+      </c>
+      <c r="N119" t="s">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X119" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>163</v>
+      </c>
+      <c r="B120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.647931718E9</v>
+      </c>
+      <c r="K120" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="L120" t="s">
+        <v>0</v>
+      </c>
+      <c r="M120" t="s">
+        <v>45</v>
+      </c>
+      <c r="N120" t="s">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X120" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>164</v>
+      </c>
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1.647932801E9</v>
+      </c>
+      <c r="K121" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L121" t="s">
+        <v>0</v>
+      </c>
+      <c r="M121" t="s">
+        <v>45</v>
+      </c>
+      <c r="N121" t="s">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X121" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>165</v>
+      </c>
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1.647932801E9</v>
+      </c>
+      <c r="K122" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L122" t="s">
+        <v>0</v>
+      </c>
+      <c r="M122" t="s">
+        <v>45</v>
+      </c>
+      <c r="N122" t="s">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X122" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>166</v>
+      </c>
+      <c r="B123" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1.647933343E9</v>
+      </c>
+      <c r="K123" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L123" t="s">
+        <v>0</v>
+      </c>
+      <c r="M123" t="s">
+        <v>45</v>
+      </c>
+      <c r="N123" t="s">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X123" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>167</v>
+      </c>
+      <c r="B124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.647933523E9</v>
+      </c>
+      <c r="K124" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="L124" t="s">
+        <v>0</v>
+      </c>
+      <c r="M124" t="s">
+        <v>45</v>
+      </c>
+      <c r="N124" t="s">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X124" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>168</v>
+      </c>
+      <c r="B125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.647933885E9</v>
+      </c>
+      <c r="K125" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L125" t="s">
+        <v>0</v>
+      </c>
+      <c r="M125" t="s">
+        <v>45</v>
+      </c>
+      <c r="N125" t="s">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X125" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>169</v>
+      </c>
+      <c r="B126" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1.647935928E9</v>
+      </c>
+      <c r="K126" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L126" t="s">
+        <v>0</v>
+      </c>
+      <c r="M126" t="s">
+        <v>45</v>
+      </c>
+      <c r="N126" t="s">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X126" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>170</v>
+      </c>
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.64793609E9</v>
+      </c>
+      <c r="K127" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="L127" t="s">
+        <v>0</v>
+      </c>
+      <c r="M127" t="s">
+        <v>45</v>
+      </c>
+      <c r="N127" t="s">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X127" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>171</v>
+      </c>
+      <c r="B128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.647937251E9</v>
+      </c>
+      <c r="K128" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L128" t="s">
+        <v>0</v>
+      </c>
+      <c r="M128" t="s">
+        <v>45</v>
+      </c>
+      <c r="N128" t="s">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X128" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>172</v>
+      </c>
+      <c r="B129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1.647937413E9</v>
+      </c>
+      <c r="K129" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="L129" t="s">
+        <v>0</v>
+      </c>
+      <c r="M129" t="s">
+        <v>45</v>
+      </c>
+      <c r="N129" t="s">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X129" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>173</v>
+      </c>
+      <c r="B130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.647938995E9</v>
+      </c>
+      <c r="K130" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="L130" t="s">
+        <v>0</v>
+      </c>
+      <c r="M130" t="s">
+        <v>45</v>
+      </c>
+      <c r="N130" t="s">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X130" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>174</v>
+      </c>
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1.647939235E9</v>
+      </c>
+      <c r="K131" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="L131" t="s">
+        <v>0</v>
+      </c>
+      <c r="M131" t="s">
+        <v>45</v>
+      </c>
+      <c r="N131" t="s">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X131" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>175</v>
+      </c>
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.647939235E9</v>
+      </c>
+      <c r="K132" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="L132" t="s">
+        <v>0</v>
+      </c>
+      <c r="M132" t="s">
+        <v>45</v>
+      </c>
+      <c r="N132" t="s">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R132" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S132" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T132" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U132" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V132" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W132" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X132" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>176</v>
+      </c>
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1.647939657E9</v>
+      </c>
+      <c r="K133" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L133" t="s">
+        <v>0</v>
+      </c>
+      <c r="M133" t="s">
+        <v>45</v>
+      </c>
+      <c r="N133" t="s">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X133" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>177</v>
+      </c>
+      <c r="B134" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1.647940982E9</v>
+      </c>
+      <c r="K134" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L134" t="s">
+        <v>0</v>
+      </c>
+      <c r="M134" t="s">
+        <v>45</v>
+      </c>
+      <c r="N134" t="s">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X134" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>178</v>
+      </c>
+      <c r="B135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.647941221E9</v>
+      </c>
+      <c r="K135" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L135" t="s">
+        <v>0</v>
+      </c>
+      <c r="M135" t="s">
+        <v>45</v>
+      </c>
+      <c r="N135" t="s">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X135" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>179</v>
+      </c>
+      <c r="B136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.647941642E9</v>
+      </c>
+      <c r="K136" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L136" t="s">
+        <v>0</v>
+      </c>
+      <c r="M136" t="s">
+        <v>45</v>
+      </c>
+      <c r="N136" t="s">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X136" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>180</v>
+      </c>
+      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1.647942063E9</v>
+      </c>
+      <c r="K137" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="L137" t="s">
+        <v>0</v>
+      </c>
+      <c r="M137" t="s">
+        <v>45</v>
+      </c>
+      <c r="N137" t="s">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X137" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>181</v>
+      </c>
+      <c r="B138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.647942905E9</v>
+      </c>
+      <c r="K138" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L138" t="s">
+        <v>0</v>
+      </c>
+      <c r="M138" t="s">
+        <v>45</v>
+      </c>
+      <c r="N138" t="s">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X138" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>182</v>
+      </c>
+      <c r="B139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1.647942905E9</v>
+      </c>
+      <c r="K139" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L139" t="s">
+        <v>0</v>
+      </c>
+      <c r="M139" t="s">
+        <v>45</v>
+      </c>
+      <c r="N139" t="s">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X139" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>183</v>
+      </c>
+      <c r="B140" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1.647943147E9</v>
+      </c>
+      <c r="K140" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L140" t="s">
+        <v>0</v>
+      </c>
+      <c r="M140" t="s">
+        <v>45</v>
+      </c>
+      <c r="N140" t="s">
+        <v>0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X140" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>184</v>
+      </c>
+      <c r="B141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1.647943447E9</v>
+      </c>
+      <c r="K141" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="L141" t="s">
+        <v>0</v>
+      </c>
+      <c r="M141" t="s">
+        <v>45</v>
+      </c>
+      <c r="N141" t="s">
+        <v>0</v>
+      </c>
+      <c r="O141" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X141" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>185</v>
+      </c>
+      <c r="B142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1.647944108E9</v>
+      </c>
+      <c r="K142" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="L142" t="s">
+        <v>0</v>
+      </c>
+      <c r="M142" t="s">
+        <v>45</v>
+      </c>
+      <c r="N142" t="s">
+        <v>0</v>
+      </c>
+      <c r="O142" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X142" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>186</v>
+      </c>
+      <c r="B143" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1.647944412E9</v>
+      </c>
+      <c r="K143" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="L143" t="s">
+        <v>0</v>
+      </c>
+      <c r="M143" t="s">
+        <v>45</v>
+      </c>
+      <c r="N143" t="s">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X143" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>187</v>
+      </c>
+      <c r="B144" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1.647946334E9</v>
+      </c>
+      <c r="K144" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L144" t="s">
+        <v>0</v>
+      </c>
+      <c r="M144" t="s">
+        <v>45</v>
+      </c>
+      <c r="N144" t="s">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X144" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>188</v>
+      </c>
+      <c r="B145" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1.647946574E9</v>
+      </c>
+      <c r="K145" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="L145" t="s">
+        <v>0</v>
+      </c>
+      <c r="M145" t="s">
+        <v>45</v>
+      </c>
+      <c r="N145" t="s">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X145" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>189</v>
+      </c>
+      <c r="B146" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1.647949098E9</v>
+      </c>
+      <c r="K146" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L146" t="s">
+        <v>0</v>
+      </c>
+      <c r="M146" t="s">
+        <v>45</v>
+      </c>
+      <c r="N146" t="s">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X146" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>190</v>
+      </c>
+      <c r="B147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1.647949279E9</v>
+      </c>
+      <c r="K147" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L147" t="s">
+        <v>0</v>
+      </c>
+      <c r="M147" t="s">
+        <v>45</v>
+      </c>
+      <c r="N147" t="s">
+        <v>0</v>
+      </c>
+      <c r="O147" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X147" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12944,7 +16124,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M349"/>
+  <dimension ref="A1:M439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A278" sqref="A278:XFD280"/>
@@ -27265,6 +30445,3696 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>161</v>
+      </c>
+      <c r="B350" t="s">
+        <v>0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F350" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G350" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H350" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I350" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J350" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M350" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>161</v>
+      </c>
+      <c r="B351" t="s">
+        <v>0</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D351" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F351" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G351" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H351" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I351" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J351" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L351" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M351" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>161</v>
+      </c>
+      <c r="B352" t="s">
+        <v>0</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D352" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F352" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G352" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H352" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I352" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J352" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L352" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M352" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>162</v>
+      </c>
+      <c r="B353" t="s">
+        <v>0</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D353" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E353" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F353" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G353" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H353" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I353" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J353" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L353" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M353" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>162</v>
+      </c>
+      <c r="B354" t="s">
+        <v>0</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D354" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E354" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F354" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G354" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H354" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I354" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J354" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L354" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M354" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>162</v>
+      </c>
+      <c r="B355" t="s">
+        <v>0</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D355" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E355" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F355" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G355" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H355" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I355" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J355" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L355" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M355" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>163</v>
+      </c>
+      <c r="B356" t="s">
+        <v>0</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D356" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E356" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F356" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G356" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H356" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I356" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J356" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L356" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M356" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>163</v>
+      </c>
+      <c r="B357" t="s">
+        <v>0</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D357" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E357" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F357" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G357" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H357" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I357" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J357" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L357" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M357" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>163</v>
+      </c>
+      <c r="B358" t="s">
+        <v>0</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D358" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E358" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F358" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G358" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H358" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I358" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J358" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L358" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M358" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>164</v>
+      </c>
+      <c r="B359" t="s">
+        <v>0</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D359" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F359" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G359" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H359" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I359" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J359" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L359" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M359" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>164</v>
+      </c>
+      <c r="B360" t="s">
+        <v>0</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D360" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F360" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G360" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H360" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I360" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J360" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L360" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M360" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>164</v>
+      </c>
+      <c r="B361" t="s">
+        <v>0</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D361" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E361" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F361" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G361" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H361" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I361" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J361" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L361" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M361" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>165</v>
+      </c>
+      <c r="B362" t="s">
+        <v>0</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D362" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E362" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F362" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G362" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H362" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I362" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J362" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L362" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M362" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>165</v>
+      </c>
+      <c r="B363" t="s">
+        <v>0</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D363" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E363" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F363" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G363" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H363" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I363" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J363" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L363" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M363" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>165</v>
+      </c>
+      <c r="B364" t="s">
+        <v>0</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D364" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E364" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F364" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G364" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H364" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I364" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J364" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L364" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M364" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>166</v>
+      </c>
+      <c r="B365" t="s">
+        <v>0</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D365" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F365" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G365" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H365" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I365" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J365" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L365" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M365" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>166</v>
+      </c>
+      <c r="B366" t="s">
+        <v>0</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D366" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E366" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F366" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G366" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H366" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I366" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J366" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L366" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M366" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>166</v>
+      </c>
+      <c r="B367" t="s">
+        <v>0</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D367" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E367" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F367" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G367" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H367" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I367" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J367" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L367" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M367" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>167</v>
+      </c>
+      <c r="B368" t="s">
+        <v>0</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D368" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E368" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F368" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G368" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H368" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I368" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J368" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L368" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M368" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>167</v>
+      </c>
+      <c r="B369" t="s">
+        <v>0</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D369" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E369" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F369" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G369" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H369" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I369" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J369" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L369" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M369" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>167</v>
+      </c>
+      <c r="B370" t="s">
+        <v>0</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D370" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E370" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F370" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G370" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H370" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I370" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J370" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L370" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M370" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>168</v>
+      </c>
+      <c r="B371" t="s">
+        <v>0</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D371" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E371" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F371" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G371" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H371" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I371" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J371" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L371" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M371" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>168</v>
+      </c>
+      <c r="B372" t="s">
+        <v>0</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D372" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E372" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F372" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G372" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H372" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I372" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J372" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L372" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M372" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>168</v>
+      </c>
+      <c r="B373" t="s">
+        <v>0</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D373" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E373" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F373" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G373" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H373" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I373" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J373" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L373" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M373" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>169</v>
+      </c>
+      <c r="B374" t="s">
+        <v>0</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D374" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E374" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F374" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G374" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H374" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I374" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J374" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L374" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M374" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>169</v>
+      </c>
+      <c r="B375" t="s">
+        <v>0</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D375" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F375" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G375" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H375" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I375" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J375" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L375" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M375" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>169</v>
+      </c>
+      <c r="B376" t="s">
+        <v>0</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D376" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F376" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G376" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H376" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I376" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J376" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L376" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M376" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>170</v>
+      </c>
+      <c r="B377" t="s">
+        <v>0</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D377" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F377" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G377" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H377" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I377" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J377" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L377" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M377" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>170</v>
+      </c>
+      <c r="B378" t="s">
+        <v>0</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D378" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F378" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G378" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H378" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I378" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J378" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L378" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M378" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>170</v>
+      </c>
+      <c r="B379" t="s">
+        <v>0</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D379" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E379" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F379" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G379" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H379" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I379" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J379" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L379" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M379" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>171</v>
+      </c>
+      <c r="B380" t="s">
+        <v>0</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D380" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E380" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F380" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G380" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H380" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I380" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J380" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L380" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M380" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>171</v>
+      </c>
+      <c r="B381" t="s">
+        <v>0</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D381" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E381" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F381" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G381" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H381" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I381" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J381" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L381" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M381" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>171</v>
+      </c>
+      <c r="B382" t="s">
+        <v>0</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D382" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E382" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F382" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G382" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H382" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I382" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J382" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L382" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M382" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>172</v>
+      </c>
+      <c r="B383" t="s">
+        <v>0</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D383" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E383" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F383" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G383" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H383" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I383" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J383" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L383" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M383" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>172</v>
+      </c>
+      <c r="B384" t="s">
+        <v>0</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D384" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E384" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F384" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G384" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H384" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I384" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J384" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L384" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M384" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>172</v>
+      </c>
+      <c r="B385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D385" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E385" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F385" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G385" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H385" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I385" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J385" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L385" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M385" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>173</v>
+      </c>
+      <c r="B386" t="s">
+        <v>0</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D386" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E386" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F386" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G386" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H386" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I386" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J386" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L386" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M386" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>173</v>
+      </c>
+      <c r="B387" t="s">
+        <v>0</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D387" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E387" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F387" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G387" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H387" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I387" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J387" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L387" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M387" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>173</v>
+      </c>
+      <c r="B388" t="s">
+        <v>0</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D388" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E388" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F388" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G388" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H388" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I388" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J388" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L388" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M388" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>174</v>
+      </c>
+      <c r="B389" t="s">
+        <v>0</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D389" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E389" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F389" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G389" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H389" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I389" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J389" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L389" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M389" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>174</v>
+      </c>
+      <c r="B390" t="s">
+        <v>0</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D390" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E390" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F390" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G390" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H390" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I390" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J390" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L390" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M390" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>174</v>
+      </c>
+      <c r="B391" t="s">
+        <v>0</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D391" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E391" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F391" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G391" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H391" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I391" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J391" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L391" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M391" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>175</v>
+      </c>
+      <c r="B392" t="s">
+        <v>0</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D392" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E392" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F392" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G392" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H392" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I392" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J392" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L392" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M392" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>175</v>
+      </c>
+      <c r="B393" t="s">
+        <v>0</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D393" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E393" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F393" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G393" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H393" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I393" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J393" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L393" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M393" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>175</v>
+      </c>
+      <c r="B394" t="s">
+        <v>0</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D394" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E394" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F394" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G394" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H394" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I394" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J394" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L394" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M394" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>176</v>
+      </c>
+      <c r="B395" t="s">
+        <v>0</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D395" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E395" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F395" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G395" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H395" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I395" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J395" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L395" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M395" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>176</v>
+      </c>
+      <c r="B396" t="s">
+        <v>0</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D396" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E396" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F396" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G396" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H396" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I396" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J396" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L396" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M396" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>176</v>
+      </c>
+      <c r="B397" t="s">
+        <v>0</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D397" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E397" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F397" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G397" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H397" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I397" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J397" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L397" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M397" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>177</v>
+      </c>
+      <c r="B398" t="s">
+        <v>0</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D398" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E398" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F398" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G398" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H398" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I398" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J398" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L398" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M398" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>177</v>
+      </c>
+      <c r="B399" t="s">
+        <v>0</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D399" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E399" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F399" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G399" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H399" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I399" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J399" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L399" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M399" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>177</v>
+      </c>
+      <c r="B400" t="s">
+        <v>0</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D400" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E400" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F400" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G400" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H400" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I400" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J400" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L400" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M400" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>178</v>
+      </c>
+      <c r="B401" t="s">
+        <v>0</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D401" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E401" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F401" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G401" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H401" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I401" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J401" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L401" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M401" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>178</v>
+      </c>
+      <c r="B402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D402" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E402" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F402" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G402" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H402" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I402" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J402" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L402" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M402" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>178</v>
+      </c>
+      <c r="B403" t="s">
+        <v>0</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D403" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E403" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F403" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G403" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H403" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I403" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J403" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L403" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M403" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>179</v>
+      </c>
+      <c r="B404" t="s">
+        <v>0</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D404" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E404" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F404" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G404" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H404" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I404" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J404" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L404" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M404" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>179</v>
+      </c>
+      <c r="B405" t="s">
+        <v>0</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D405" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E405" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F405" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G405" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H405" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I405" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J405" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L405" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M405" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>179</v>
+      </c>
+      <c r="B406" t="s">
+        <v>0</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D406" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E406" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F406" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G406" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H406" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I406" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J406" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L406" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M406" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>180</v>
+      </c>
+      <c r="B407" t="s">
+        <v>0</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D407" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E407" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F407" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G407" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H407" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I407" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J407" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L407" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M407" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>180</v>
+      </c>
+      <c r="B408" t="s">
+        <v>0</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D408" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E408" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F408" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G408" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H408" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I408" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J408" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L408" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M408" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>180</v>
+      </c>
+      <c r="B409" t="s">
+        <v>0</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D409" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E409" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F409" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G409" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H409" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I409" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J409" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L409" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M409" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>181</v>
+      </c>
+      <c r="B410" t="s">
+        <v>0</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D410" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E410" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F410" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G410" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H410" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I410" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J410" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L410" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M410" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>181</v>
+      </c>
+      <c r="B411" t="s">
+        <v>0</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D411" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E411" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F411" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G411" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H411" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I411" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J411" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L411" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M411" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>181</v>
+      </c>
+      <c r="B412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D412" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E412" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F412" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G412" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H412" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I412" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J412" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L412" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M412" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>182</v>
+      </c>
+      <c r="B413" t="s">
+        <v>0</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D413" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E413" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F413" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G413" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H413" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I413" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J413" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L413" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M413" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>182</v>
+      </c>
+      <c r="B414" t="s">
+        <v>0</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D414" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E414" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F414" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G414" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H414" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I414" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J414" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L414" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M414" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>182</v>
+      </c>
+      <c r="B415" t="s">
+        <v>0</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D415" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E415" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F415" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G415" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H415" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I415" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J415" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L415" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M415" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>183</v>
+      </c>
+      <c r="B416" t="s">
+        <v>0</v>
+      </c>
+      <c r="C416" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D416" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E416" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F416" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G416" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H416" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I416" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J416" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L416" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M416" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>183</v>
+      </c>
+      <c r="B417" t="s">
+        <v>0</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D417" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E417" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F417" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G417" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H417" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I417" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J417" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L417" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M417" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>183</v>
+      </c>
+      <c r="B418" t="s">
+        <v>0</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D418" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E418" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F418" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G418" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H418" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I418" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J418" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L418" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M418" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>184</v>
+      </c>
+      <c r="B419" t="s">
+        <v>0</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D419" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E419" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F419" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G419" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H419" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I419" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J419" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L419" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M419" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>184</v>
+      </c>
+      <c r="B420" t="s">
+        <v>0</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D420" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E420" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F420" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G420" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H420" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I420" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J420" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L420" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M420" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>184</v>
+      </c>
+      <c r="B421" t="s">
+        <v>0</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D421" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E421" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F421" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G421" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H421" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I421" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J421" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L421" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M421" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>185</v>
+      </c>
+      <c r="B422" t="s">
+        <v>0</v>
+      </c>
+      <c r="C422" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D422" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E422" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F422" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G422" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H422" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I422" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J422" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L422" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M422" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>185</v>
+      </c>
+      <c r="B423" t="s">
+        <v>0</v>
+      </c>
+      <c r="C423" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D423" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E423" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F423" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G423" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H423" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I423" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J423" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L423" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M423" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>185</v>
+      </c>
+      <c r="B424" t="s">
+        <v>0</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D424" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E424" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F424" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G424" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H424" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I424" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J424" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L424" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M424" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>186</v>
+      </c>
+      <c r="B425" t="s">
+        <v>0</v>
+      </c>
+      <c r="C425" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D425" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E425" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F425" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G425" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H425" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I425" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J425" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L425" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M425" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>186</v>
+      </c>
+      <c r="B426" t="s">
+        <v>0</v>
+      </c>
+      <c r="C426" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D426" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E426" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F426" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G426" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H426" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I426" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J426" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L426" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M426" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>186</v>
+      </c>
+      <c r="B427" t="s">
+        <v>0</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D427" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E427" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F427" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G427" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H427" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I427" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J427" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L427" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M427" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>187</v>
+      </c>
+      <c r="B428" t="s">
+        <v>0</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D428" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E428" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F428" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G428" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H428" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I428" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J428" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L428" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M428" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>187</v>
+      </c>
+      <c r="B429" t="s">
+        <v>0</v>
+      </c>
+      <c r="C429" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D429" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E429" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F429" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G429" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H429" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I429" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J429" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L429" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M429" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>187</v>
+      </c>
+      <c r="B430" t="s">
+        <v>0</v>
+      </c>
+      <c r="C430" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D430" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E430" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F430" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G430" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H430" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I430" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J430" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L430" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M430" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>188</v>
+      </c>
+      <c r="B431" t="s">
+        <v>0</v>
+      </c>
+      <c r="C431" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D431" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E431" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F431" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G431" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H431" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I431" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J431" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L431" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M431" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>188</v>
+      </c>
+      <c r="B432" t="s">
+        <v>0</v>
+      </c>
+      <c r="C432" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D432" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E432" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F432" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G432" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H432" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I432" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J432" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L432" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M432" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>188</v>
+      </c>
+      <c r="B433" t="s">
+        <v>0</v>
+      </c>
+      <c r="C433" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D433" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E433" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F433" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G433" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H433" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I433" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J433" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L433" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M433" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>189</v>
+      </c>
+      <c r="B434" t="s">
+        <v>0</v>
+      </c>
+      <c r="C434" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D434" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E434" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F434" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G434" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H434" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I434" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J434" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L434" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M434" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>189</v>
+      </c>
+      <c r="B435" t="s">
+        <v>0</v>
+      </c>
+      <c r="C435" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D435" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E435" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F435" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G435" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H435" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I435" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J435" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L435" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M435" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>189</v>
+      </c>
+      <c r="B436" t="s">
+        <v>0</v>
+      </c>
+      <c r="C436" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D436" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E436" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F436" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G436" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H436" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I436" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J436" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L436" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M436" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>190</v>
+      </c>
+      <c r="B437" t="s">
+        <v>0</v>
+      </c>
+      <c r="C437" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D437" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E437" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F437" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G437" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H437" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I437" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J437" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L437" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M437" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>190</v>
+      </c>
+      <c r="B438" t="s">
+        <v>0</v>
+      </c>
+      <c r="C438" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D438" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E438" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F438" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G438" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H438" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I438" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J438" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L438" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M438" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>190</v>
+      </c>
+      <c r="B439" t="s">
+        <v>0</v>
+      </c>
+      <c r="C439" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D439" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E439" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F439" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G439" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H439" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I439" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J439" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L439" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M439" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_41473.xlsx
+++ b/data/sheet/msg_41473.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3031" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="194">
   <si>
     <t/>
   </si>
@@ -596,6 +596,15 @@
   <si>
     <t>2022-03-22 12:42:11</t>
   </si>
+  <si>
+    <t>2022-03-22 13:07:03</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:19:27</t>
+  </si>
+  <si>
+    <t>2022-03-23 23:36:21</t>
+  </si>
 </sst>
 </file>
 
@@ -947,7 +956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5221,6 +5230,93 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>191</v>
+      </c>
+      <c r="B148" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.647950825E9</v>
+      </c>
+      <c r="E148" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>192</v>
+      </c>
+      <c r="B149" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.64797677E9</v>
+      </c>
+      <c r="E149" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>193</v>
+      </c>
+      <c r="B150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.648074985E9</v>
+      </c>
+      <c r="E150" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5228,7 +5324,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X147"/>
+  <dimension ref="A1:X150"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0"/>
   </sheetViews>
@@ -16117,6 +16213,228 @@
         <v>0</v>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>191</v>
+      </c>
+      <c r="B148" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1.647950782E9</v>
+      </c>
+      <c r="K148" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L148" t="s">
+        <v>0</v>
+      </c>
+      <c r="M148" t="s">
+        <v>45</v>
+      </c>
+      <c r="N148" t="s">
+        <v>0</v>
+      </c>
+      <c r="O148" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X148" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>192</v>
+      </c>
+      <c r="B149" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1.647976736E9</v>
+      </c>
+      <c r="K149" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L149" t="s">
+        <v>0</v>
+      </c>
+      <c r="M149" t="s">
+        <v>45</v>
+      </c>
+      <c r="N149" t="s">
+        <v>0</v>
+      </c>
+      <c r="O149" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X149" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>193</v>
+      </c>
+      <c r="B150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1.648074946E9</v>
+      </c>
+      <c r="K150" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="L150" t="s">
+        <v>0</v>
+      </c>
+      <c r="M150" t="s">
+        <v>45</v>
+      </c>
+      <c r="N150" t="s">
+        <v>0</v>
+      </c>
+      <c r="O150" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X150" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16124,7 +16442,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M439"/>
+  <dimension ref="A1:M448"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A278" sqref="A278:XFD280"/>
@@ -34135,6 +34453,375 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>191</v>
+      </c>
+      <c r="B440" t="s">
+        <v>0</v>
+      </c>
+      <c r="C440" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D440" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E440" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F440" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G440" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H440" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I440" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J440" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L440" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M440" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>191</v>
+      </c>
+      <c r="B441" t="s">
+        <v>0</v>
+      </c>
+      <c r="C441" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D441" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E441" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F441" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G441" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H441" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I441" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J441" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L441" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M441" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>191</v>
+      </c>
+      <c r="B442" t="s">
+        <v>0</v>
+      </c>
+      <c r="C442" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D442" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E442" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F442" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G442" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H442" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I442" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J442" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L442" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M442" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>192</v>
+      </c>
+      <c r="B443" t="s">
+        <v>0</v>
+      </c>
+      <c r="C443" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D443" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E443" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F443" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G443" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H443" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I443" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J443" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L443" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M443" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>192</v>
+      </c>
+      <c r="B444" t="s">
+        <v>0</v>
+      </c>
+      <c r="C444" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D444" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E444" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F444" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G444" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H444" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I444" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J444" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L444" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M444" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>192</v>
+      </c>
+      <c r="B445" t="s">
+        <v>0</v>
+      </c>
+      <c r="C445" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D445" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E445" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F445" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G445" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H445" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I445" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J445" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L445" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M445" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>193</v>
+      </c>
+      <c r="B446" t="s">
+        <v>0</v>
+      </c>
+      <c r="C446" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D446" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E446" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F446" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G446" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H446" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I446" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J446" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L446" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M446" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>193</v>
+      </c>
+      <c r="B447" t="s">
+        <v>0</v>
+      </c>
+      <c r="C447" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D447" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E447" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F447" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G447" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H447" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I447" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J447" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L447" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M447" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>193</v>
+      </c>
+      <c r="B448" t="s">
+        <v>0</v>
+      </c>
+      <c r="C448" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D448" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E448" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F448" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G448" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H448" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I448" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J448" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L448" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M448" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_41473.xlsx
+++ b/data/sheet/msg_41473.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4201" uniqueCount="230">
   <si>
     <t/>
   </si>
@@ -605,6 +605,114 @@
   <si>
     <t>2022-03-23 23:36:21</t>
   </si>
+  <si>
+    <t>2022-03-25 13:45:59</t>
+  </si>
+  <si>
+    <t>2022-03-25 13:47:09</t>
+  </si>
+  <si>
+    <t>2022-03-25 13:58:27</t>
+  </si>
+  <si>
+    <t>2022-03-25 14:02:29</t>
+  </si>
+  <si>
+    <t>2022-03-25 14:10:43</t>
+  </si>
+  <si>
+    <t>2022-06-09 13:46:32</t>
+  </si>
+  <si>
+    <t>2022-06-09 16:20:19</t>
+  </si>
+  <si>
+    <t>2022-06-09 16:23:50</t>
+  </si>
+  <si>
+    <t>2022-06-09 16:26:39</t>
+  </si>
+  <si>
+    <t>2022-06-09 16:27:11</t>
+  </si>
+  <si>
+    <t>2022-06-09 16:29:17</t>
+  </si>
+  <si>
+    <t>2022-06-09 16:32:09</t>
+  </si>
+  <si>
+    <t>2022-06-09 16:45:29</t>
+  </si>
+  <si>
+    <t>2022-06-09 22:53:50</t>
+  </si>
+  <si>
+    <t>2022-06-10 09:15:19</t>
+  </si>
+  <si>
+    <t>2022-06-10 13:18:39</t>
+  </si>
+  <si>
+    <t>2022-06-10 13:20:32</t>
+  </si>
+  <si>
+    <t>2022-06-10 13:49:33</t>
+  </si>
+  <si>
+    <t>2022-06-10 16:27:51</t>
+  </si>
+  <si>
+    <t>2022-06-10 18:47:47</t>
+  </si>
+  <si>
+    <t>2022-06-11 07:59:43</t>
+  </si>
+  <si>
+    <t>2022-06-24 12:56:54</t>
+  </si>
+  <si>
+    <t>2022-07-01 15:56:46</t>
+  </si>
+  <si>
+    <t>2022-07-01 16:00:07</t>
+  </si>
+  <si>
+    <t>2022-07-01 16:03:54</t>
+  </si>
+  <si>
+    <t>2022-07-01 16:34:12</t>
+  </si>
+  <si>
+    <t>2022-07-01 16:35:54</t>
+  </si>
+  <si>
+    <t>2022-07-01 16:36:25</t>
+  </si>
+  <si>
+    <t>2022-07-01 16:38:55</t>
+  </si>
+  <si>
+    <t>2022-07-01 17:05:33</t>
+  </si>
+  <si>
+    <t>2022-07-01 17:06:22</t>
+  </si>
+  <si>
+    <t>2022-07-01 17:08:31</t>
+  </si>
+  <si>
+    <t>2022-07-01 17:11:01</t>
+  </si>
+  <si>
+    <t>2022-07-01 17:12:31</t>
+  </si>
+  <si>
+    <t>2022-07-01 17:13:33</t>
+  </si>
+  <si>
+    <t>2022-07-01 17:38:09</t>
+  </si>
 </sst>
 </file>
 
@@ -956,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:I186"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5317,6 +5425,1050 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>194</v>
+      </c>
+      <c r="B151" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.64821236E9</v>
+      </c>
+      <c r="E151" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>195</v>
+      </c>
+      <c r="B152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.648212431E9</v>
+      </c>
+      <c r="E152" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>196</v>
+      </c>
+      <c r="B153" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.648213109E9</v>
+      </c>
+      <c r="E153" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>197</v>
+      </c>
+      <c r="B154" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.648213351E9</v>
+      </c>
+      <c r="E154" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>198</v>
+      </c>
+      <c r="B155" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.648213844E9</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>199</v>
+      </c>
+      <c r="B156" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.654775205E9</v>
+      </c>
+      <c r="E156" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>200</v>
+      </c>
+      <c r="B157" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.654784432E9</v>
+      </c>
+      <c r="E157" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>201</v>
+      </c>
+      <c r="B158" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.654784643E9</v>
+      </c>
+      <c r="E158" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>202</v>
+      </c>
+      <c r="B159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.654784812E9</v>
+      </c>
+      <c r="E159" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>203</v>
+      </c>
+      <c r="B160" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.654784845E9</v>
+      </c>
+      <c r="E160" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>204</v>
+      </c>
+      <c r="B161" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.65478497E9</v>
+      </c>
+      <c r="E161" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>205</v>
+      </c>
+      <c r="B162" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.654785143E9</v>
+      </c>
+      <c r="E162" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>206</v>
+      </c>
+      <c r="B163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.654785943E9</v>
+      </c>
+      <c r="E163" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>207</v>
+      </c>
+      <c r="B164" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.654808046E9</v>
+      </c>
+      <c r="E164" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>208</v>
+      </c>
+      <c r="B165" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.654845319E9</v>
+      </c>
+      <c r="E165" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>209</v>
+      </c>
+      <c r="B166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.65485992E9</v>
+      </c>
+      <c r="E166" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>210</v>
+      </c>
+      <c r="B167" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.654860033E9</v>
+      </c>
+      <c r="E167" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>211</v>
+      </c>
+      <c r="B168" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.654861774E9</v>
+      </c>
+      <c r="E168" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>212</v>
+      </c>
+      <c r="B169" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.654871273E9</v>
+      </c>
+      <c r="E169" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>213</v>
+      </c>
+      <c r="B170" t="s">
+        <v>0</v>
+      </c>
+      <c r="C170" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.654879669E9</v>
+      </c>
+      <c r="E170" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>214</v>
+      </c>
+      <c r="B171" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.654927189E9</v>
+      </c>
+      <c r="E171" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>215</v>
+      </c>
+      <c r="B172" t="s">
+        <v>0</v>
+      </c>
+      <c r="C172" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.656068215E9</v>
+      </c>
+      <c r="E172" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>216</v>
+      </c>
+      <c r="B173" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.656683813E9</v>
+      </c>
+      <c r="E173" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>217</v>
+      </c>
+      <c r="B174" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.656684014E9</v>
+      </c>
+      <c r="E174" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>218</v>
+      </c>
+      <c r="B175" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.656684241E9</v>
+      </c>
+      <c r="E175" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>219</v>
+      </c>
+      <c r="B176" t="s">
+        <v>0</v>
+      </c>
+      <c r="C176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.65668606E9</v>
+      </c>
+      <c r="E176" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>220</v>
+      </c>
+      <c r="B177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.656686161E9</v>
+      </c>
+      <c r="E177" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>221</v>
+      </c>
+      <c r="B178" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.656686193E9</v>
+      </c>
+      <c r="E178" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>222</v>
+      </c>
+      <c r="B179" t="s">
+        <v>0</v>
+      </c>
+      <c r="C179" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.656686343E9</v>
+      </c>
+      <c r="E179" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>223</v>
+      </c>
+      <c r="B180" t="s">
+        <v>0</v>
+      </c>
+      <c r="C180" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.656687941E9</v>
+      </c>
+      <c r="E180" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>224</v>
+      </c>
+      <c r="B181" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.65668799E9</v>
+      </c>
+      <c r="E181" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>225</v>
+      </c>
+      <c r="B182" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.656688119E9</v>
+      </c>
+      <c r="E182" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>226</v>
+      </c>
+      <c r="B183" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.656688268E9</v>
+      </c>
+      <c r="E183" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>227</v>
+      </c>
+      <c r="B184" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1.656688359E9</v>
+      </c>
+      <c r="E184" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>228</v>
+      </c>
+      <c r="B185" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.656688421E9</v>
+      </c>
+      <c r="E185" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>229</v>
+      </c>
+      <c r="B186" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.656689897E9</v>
+      </c>
+      <c r="E186" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5324,7 +6476,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X150"/>
+  <dimension ref="A1:X186"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0"/>
   </sheetViews>
@@ -16435,6 +17587,2670 @@
         <v>0</v>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>194</v>
+      </c>
+      <c r="B151" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1.64821231E9</v>
+      </c>
+      <c r="K151" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="L151" t="s">
+        <v>0</v>
+      </c>
+      <c r="M151" t="s">
+        <v>45</v>
+      </c>
+      <c r="N151" t="s">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X151" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>195</v>
+      </c>
+      <c r="B152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1.64821231E9</v>
+      </c>
+      <c r="K152" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="L152" t="s">
+        <v>0</v>
+      </c>
+      <c r="M152" t="s">
+        <v>45</v>
+      </c>
+      <c r="N152" t="s">
+        <v>0</v>
+      </c>
+      <c r="O152" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X152" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>196</v>
+      </c>
+      <c r="B153" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1.648213093E9</v>
+      </c>
+      <c r="K153" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="L153" t="s">
+        <v>0</v>
+      </c>
+      <c r="M153" t="s">
+        <v>45</v>
+      </c>
+      <c r="N153" t="s">
+        <v>0</v>
+      </c>
+      <c r="O153" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X153" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>197</v>
+      </c>
+      <c r="B154" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1.648213334E9</v>
+      </c>
+      <c r="K154" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="L154" t="s">
+        <v>0</v>
+      </c>
+      <c r="M154" t="s">
+        <v>45</v>
+      </c>
+      <c r="N154" t="s">
+        <v>0</v>
+      </c>
+      <c r="O154" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X154" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>198</v>
+      </c>
+      <c r="B155" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1.648213816E9</v>
+      </c>
+      <c r="K155" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="L155" t="s">
+        <v>0</v>
+      </c>
+      <c r="M155" t="s">
+        <v>45</v>
+      </c>
+      <c r="N155" t="s">
+        <v>0</v>
+      </c>
+      <c r="O155" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X155" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>199</v>
+      </c>
+      <c r="B156" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1.654775141E9</v>
+      </c>
+      <c r="K156" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="L156" t="s">
+        <v>0</v>
+      </c>
+      <c r="M156" t="s">
+        <v>45</v>
+      </c>
+      <c r="N156" t="s">
+        <v>0</v>
+      </c>
+      <c r="O156" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X156" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>200</v>
+      </c>
+      <c r="B157" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1.654784397E9</v>
+      </c>
+      <c r="K157" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="L157" t="s">
+        <v>0</v>
+      </c>
+      <c r="M157" t="s">
+        <v>45</v>
+      </c>
+      <c r="N157" t="s">
+        <v>0</v>
+      </c>
+      <c r="O157" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X157" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>201</v>
+      </c>
+      <c r="B158" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1.654784639E9</v>
+      </c>
+      <c r="K158" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="L158" t="s">
+        <v>0</v>
+      </c>
+      <c r="M158" t="s">
+        <v>45</v>
+      </c>
+      <c r="N158" t="s">
+        <v>0</v>
+      </c>
+      <c r="O158" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X158" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>202</v>
+      </c>
+      <c r="B159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1.654784799E9</v>
+      </c>
+      <c r="K159" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="L159" t="s">
+        <v>0</v>
+      </c>
+      <c r="M159" t="s">
+        <v>45</v>
+      </c>
+      <c r="N159" t="s">
+        <v>0</v>
+      </c>
+      <c r="O159" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X159" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>203</v>
+      </c>
+      <c r="B160" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1.654784799E9</v>
+      </c>
+      <c r="K160" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="L160" t="s">
+        <v>0</v>
+      </c>
+      <c r="M160" t="s">
+        <v>45</v>
+      </c>
+      <c r="N160" t="s">
+        <v>0</v>
+      </c>
+      <c r="O160" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X160" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>204</v>
+      </c>
+      <c r="B161" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1.65478494E9</v>
+      </c>
+      <c r="K161" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="L161" t="s">
+        <v>0</v>
+      </c>
+      <c r="M161" t="s">
+        <v>45</v>
+      </c>
+      <c r="N161" t="s">
+        <v>0</v>
+      </c>
+      <c r="O161" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R161" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S161" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T161" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U161" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V161" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W161" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X161" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>205</v>
+      </c>
+      <c r="B162" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1.65478494E9</v>
+      </c>
+      <c r="K162" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="L162" t="s">
+        <v>0</v>
+      </c>
+      <c r="M162" t="s">
+        <v>45</v>
+      </c>
+      <c r="N162" t="s">
+        <v>0</v>
+      </c>
+      <c r="O162" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X162" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>206</v>
+      </c>
+      <c r="B163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1.654785902E9</v>
+      </c>
+      <c r="K163" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="L163" t="s">
+        <v>0</v>
+      </c>
+      <c r="M163" t="s">
+        <v>45</v>
+      </c>
+      <c r="N163" t="s">
+        <v>0</v>
+      </c>
+      <c r="O163" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P163" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R163" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S163" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T163" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U163" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V163" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W163" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X163" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>207</v>
+      </c>
+      <c r="B164" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1.654808015E9</v>
+      </c>
+      <c r="K164" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="L164" t="s">
+        <v>0</v>
+      </c>
+      <c r="M164" t="s">
+        <v>45</v>
+      </c>
+      <c r="N164" t="s">
+        <v>0</v>
+      </c>
+      <c r="O164" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P164" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R164" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S164" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T164" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U164" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V164" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W164" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X164" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>208</v>
+      </c>
+      <c r="B165" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1.654845271E9</v>
+      </c>
+      <c r="K165" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L165" t="s">
+        <v>0</v>
+      </c>
+      <c r="M165" t="s">
+        <v>45</v>
+      </c>
+      <c r="N165" t="s">
+        <v>0</v>
+      </c>
+      <c r="O165" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X165" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>209</v>
+      </c>
+      <c r="B166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1.654859892E9</v>
+      </c>
+      <c r="K166" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="L166" t="s">
+        <v>0</v>
+      </c>
+      <c r="M166" t="s">
+        <v>45</v>
+      </c>
+      <c r="N166" t="s">
+        <v>0</v>
+      </c>
+      <c r="O166" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X166" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>210</v>
+      </c>
+      <c r="B167" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1.654859892E9</v>
+      </c>
+      <c r="K167" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="L167" t="s">
+        <v>0</v>
+      </c>
+      <c r="M167" t="s">
+        <v>45</v>
+      </c>
+      <c r="N167" t="s">
+        <v>0</v>
+      </c>
+      <c r="O167" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X167" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>211</v>
+      </c>
+      <c r="B168" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1.654861762E9</v>
+      </c>
+      <c r="K168" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="L168" t="s">
+        <v>0</v>
+      </c>
+      <c r="M168" t="s">
+        <v>45</v>
+      </c>
+      <c r="N168" t="s">
+        <v>0</v>
+      </c>
+      <c r="O168" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X168" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>212</v>
+      </c>
+      <c r="B169" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1.654871258E9</v>
+      </c>
+      <c r="K169" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="L169" t="s">
+        <v>0</v>
+      </c>
+      <c r="M169" t="s">
+        <v>45</v>
+      </c>
+      <c r="N169" t="s">
+        <v>0</v>
+      </c>
+      <c r="O169" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X169" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>213</v>
+      </c>
+      <c r="B170" t="s">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1.654879668E9</v>
+      </c>
+      <c r="K170" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="L170" t="s">
+        <v>0</v>
+      </c>
+      <c r="M170" t="s">
+        <v>45</v>
+      </c>
+      <c r="N170" t="s">
+        <v>0</v>
+      </c>
+      <c r="O170" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X170" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>214</v>
+      </c>
+      <c r="B171" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1.654927176E9</v>
+      </c>
+      <c r="K171" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="L171" t="s">
+        <v>0</v>
+      </c>
+      <c r="M171" t="s">
+        <v>45</v>
+      </c>
+      <c r="N171" t="s">
+        <v>0</v>
+      </c>
+      <c r="O171" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X171" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>215</v>
+      </c>
+      <c r="B172" t="s">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1.656068159E9</v>
+      </c>
+      <c r="K172" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L172" t="s">
+        <v>0</v>
+      </c>
+      <c r="M172" t="s">
+        <v>45</v>
+      </c>
+      <c r="N172" t="s">
+        <v>0</v>
+      </c>
+      <c r="O172" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P172" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R172" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S172" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T172" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U172" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V172" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W172" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X172" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>216</v>
+      </c>
+      <c r="B173" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1.656683807E9</v>
+      </c>
+      <c r="K173" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L173" t="s">
+        <v>0</v>
+      </c>
+      <c r="M173" t="s">
+        <v>45</v>
+      </c>
+      <c r="N173" t="s">
+        <v>0</v>
+      </c>
+      <c r="O173" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R173" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S173" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T173" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U173" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V173" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W173" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X173" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>217</v>
+      </c>
+      <c r="B174" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1.656683987E9</v>
+      </c>
+      <c r="K174" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="L174" t="s">
+        <v>0</v>
+      </c>
+      <c r="M174" t="s">
+        <v>45</v>
+      </c>
+      <c r="N174" t="s">
+        <v>0</v>
+      </c>
+      <c r="O174" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R174" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S174" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T174" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U174" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V174" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W174" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X174" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>218</v>
+      </c>
+      <c r="B175" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1.656684228E9</v>
+      </c>
+      <c r="K175" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L175" t="s">
+        <v>0</v>
+      </c>
+      <c r="M175" t="s">
+        <v>45</v>
+      </c>
+      <c r="N175" t="s">
+        <v>0</v>
+      </c>
+      <c r="O175" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X175" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>219</v>
+      </c>
+      <c r="B176" t="s">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1.656686032E9</v>
+      </c>
+      <c r="K176" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L176" t="s">
+        <v>0</v>
+      </c>
+      <c r="M176" t="s">
+        <v>45</v>
+      </c>
+      <c r="N176" t="s">
+        <v>0</v>
+      </c>
+      <c r="O176" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X176" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>220</v>
+      </c>
+      <c r="B177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1.656686032E9</v>
+      </c>
+      <c r="K177" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L177" t="s">
+        <v>0</v>
+      </c>
+      <c r="M177" t="s">
+        <v>45</v>
+      </c>
+      <c r="N177" t="s">
+        <v>0</v>
+      </c>
+      <c r="O177" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P177" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R177" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S177" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T177" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U177" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V177" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W177" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X177" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>221</v>
+      </c>
+      <c r="B178" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1.656686193E9</v>
+      </c>
+      <c r="K178" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L178" t="s">
+        <v>0</v>
+      </c>
+      <c r="M178" t="s">
+        <v>45</v>
+      </c>
+      <c r="N178" t="s">
+        <v>0</v>
+      </c>
+      <c r="O178" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X178" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>222</v>
+      </c>
+      <c r="B179" t="s">
+        <v>0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1.656686333E9</v>
+      </c>
+      <c r="K179" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L179" t="s">
+        <v>0</v>
+      </c>
+      <c r="M179" t="s">
+        <v>45</v>
+      </c>
+      <c r="N179" t="s">
+        <v>0</v>
+      </c>
+      <c r="O179" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X179" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>223</v>
+      </c>
+      <c r="B180" t="s">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1.656687896E9</v>
+      </c>
+      <c r="K180" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L180" t="s">
+        <v>0</v>
+      </c>
+      <c r="M180" t="s">
+        <v>45</v>
+      </c>
+      <c r="N180" t="s">
+        <v>0</v>
+      </c>
+      <c r="O180" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X180" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>224</v>
+      </c>
+      <c r="B181" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1.656687896E9</v>
+      </c>
+      <c r="K181" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L181" t="s">
+        <v>0</v>
+      </c>
+      <c r="M181" t="s">
+        <v>45</v>
+      </c>
+      <c r="N181" t="s">
+        <v>0</v>
+      </c>
+      <c r="O181" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X181" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>225</v>
+      </c>
+      <c r="B182" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1.656687896E9</v>
+      </c>
+      <c r="K182" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L182" t="s">
+        <v>0</v>
+      </c>
+      <c r="M182" t="s">
+        <v>45</v>
+      </c>
+      <c r="N182" t="s">
+        <v>0</v>
+      </c>
+      <c r="O182" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X182" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>226</v>
+      </c>
+      <c r="B183" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1.656688258E9</v>
+      </c>
+      <c r="K183" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="L183" t="s">
+        <v>0</v>
+      </c>
+      <c r="M183" t="s">
+        <v>45</v>
+      </c>
+      <c r="N183" t="s">
+        <v>0</v>
+      </c>
+      <c r="O183" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X183" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>227</v>
+      </c>
+      <c r="B184" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1.656688258E9</v>
+      </c>
+      <c r="K184" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="L184" t="s">
+        <v>0</v>
+      </c>
+      <c r="M184" t="s">
+        <v>45</v>
+      </c>
+      <c r="N184" t="s">
+        <v>0</v>
+      </c>
+      <c r="O184" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X184" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>228</v>
+      </c>
+      <c r="B185" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1.656688419E9</v>
+      </c>
+      <c r="K185" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="L185" t="s">
+        <v>0</v>
+      </c>
+      <c r="M185" t="s">
+        <v>45</v>
+      </c>
+      <c r="N185" t="s">
+        <v>0</v>
+      </c>
+      <c r="O185" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X185" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>229</v>
+      </c>
+      <c r="B186" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1.656689883E9</v>
+      </c>
+      <c r="K186" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="L186" t="s">
+        <v>0</v>
+      </c>
+      <c r="M186" t="s">
+        <v>45</v>
+      </c>
+      <c r="N186" t="s">
+        <v>0</v>
+      </c>
+      <c r="O186" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P186" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R186" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S186" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T186" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U186" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V186" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W186" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X186" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16442,7 +20258,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M448"/>
+  <dimension ref="A1:M556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A278" sqref="A278:XFD280"/>
@@ -34822,6 +38638,4434 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>194</v>
+      </c>
+      <c r="B449" t="s">
+        <v>0</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D449" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E449" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F449" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G449" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H449" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I449" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J449" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L449" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M449" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>194</v>
+      </c>
+      <c r="B450" t="s">
+        <v>0</v>
+      </c>
+      <c r="C450" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D450" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E450" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F450" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G450" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H450" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I450" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J450" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L450" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M450" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>194</v>
+      </c>
+      <c r="B451" t="s">
+        <v>0</v>
+      </c>
+      <c r="C451" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D451" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E451" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F451" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G451" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H451" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I451" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J451" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L451" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M451" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>195</v>
+      </c>
+      <c r="B452" t="s">
+        <v>0</v>
+      </c>
+      <c r="C452" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D452" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E452" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F452" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G452" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H452" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I452" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J452" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L452" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M452" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>195</v>
+      </c>
+      <c r="B453" t="s">
+        <v>0</v>
+      </c>
+      <c r="C453" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D453" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E453" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F453" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G453" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H453" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I453" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J453" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L453" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M453" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>195</v>
+      </c>
+      <c r="B454" t="s">
+        <v>0</v>
+      </c>
+      <c r="C454" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D454" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E454" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F454" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G454" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H454" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I454" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J454" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L454" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M454" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>196</v>
+      </c>
+      <c r="B455" t="s">
+        <v>0</v>
+      </c>
+      <c r="C455" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D455" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E455" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F455" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G455" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H455" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I455" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J455" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L455" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M455" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>196</v>
+      </c>
+      <c r="B456" t="s">
+        <v>0</v>
+      </c>
+      <c r="C456" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D456" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E456" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F456" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G456" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H456" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I456" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J456" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L456" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M456" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>196</v>
+      </c>
+      <c r="B457" t="s">
+        <v>0</v>
+      </c>
+      <c r="C457" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D457" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E457" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F457" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G457" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H457" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I457" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J457" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L457" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M457" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>197</v>
+      </c>
+      <c r="B458" t="s">
+        <v>0</v>
+      </c>
+      <c r="C458" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D458" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E458" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F458" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G458" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H458" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I458" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J458" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L458" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M458" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>197</v>
+      </c>
+      <c r="B459" t="s">
+        <v>0</v>
+      </c>
+      <c r="C459" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D459" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E459" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F459" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G459" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H459" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I459" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J459" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L459" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M459" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>197</v>
+      </c>
+      <c r="B460" t="s">
+        <v>0</v>
+      </c>
+      <c r="C460" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D460" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E460" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F460" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G460" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H460" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I460" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J460" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L460" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M460" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>198</v>
+      </c>
+      <c r="B461" t="s">
+        <v>0</v>
+      </c>
+      <c r="C461" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D461" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E461" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F461" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G461" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H461" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I461" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J461" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L461" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M461" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s">
+        <v>198</v>
+      </c>
+      <c r="B462" t="s">
+        <v>0</v>
+      </c>
+      <c r="C462" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D462" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E462" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F462" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G462" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H462" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I462" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J462" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L462" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M462" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s">
+        <v>198</v>
+      </c>
+      <c r="B463" t="s">
+        <v>0</v>
+      </c>
+      <c r="C463" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D463" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E463" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F463" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G463" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H463" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I463" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J463" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L463" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M463" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s">
+        <v>199</v>
+      </c>
+      <c r="B464" t="s">
+        <v>0</v>
+      </c>
+      <c r="C464" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D464" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E464" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F464" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G464" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H464" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I464" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J464" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L464" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M464" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s">
+        <v>199</v>
+      </c>
+      <c r="B465" t="s">
+        <v>0</v>
+      </c>
+      <c r="C465" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D465" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E465" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F465" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G465" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H465" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I465" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J465" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K465" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L465" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M465" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s">
+        <v>199</v>
+      </c>
+      <c r="B466" t="s">
+        <v>0</v>
+      </c>
+      <c r="C466" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D466" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E466" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F466" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G466" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H466" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I466" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J466" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K466" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L466" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M466" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s">
+        <v>200</v>
+      </c>
+      <c r="B467" t="s">
+        <v>0</v>
+      </c>
+      <c r="C467" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D467" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E467" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F467" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G467" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H467" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I467" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J467" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K467" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L467" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M467" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s">
+        <v>200</v>
+      </c>
+      <c r="B468" t="s">
+        <v>0</v>
+      </c>
+      <c r="C468" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D468" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E468" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F468" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G468" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H468" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I468" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J468" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K468" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L468" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M468" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s">
+        <v>200</v>
+      </c>
+      <c r="B469" t="s">
+        <v>0</v>
+      </c>
+      <c r="C469" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D469" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E469" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F469" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G469" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H469" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I469" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J469" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K469" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L469" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M469" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s">
+        <v>201</v>
+      </c>
+      <c r="B470" t="s">
+        <v>0</v>
+      </c>
+      <c r="C470" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D470" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E470" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F470" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G470" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H470" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I470" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J470" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K470" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L470" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M470" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s">
+        <v>201</v>
+      </c>
+      <c r="B471" t="s">
+        <v>0</v>
+      </c>
+      <c r="C471" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D471" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E471" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F471" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G471" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H471" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I471" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J471" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K471" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L471" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M471" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s">
+        <v>201</v>
+      </c>
+      <c r="B472" t="s">
+        <v>0</v>
+      </c>
+      <c r="C472" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D472" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E472" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F472" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G472" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H472" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I472" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J472" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K472" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L472" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M472" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s">
+        <v>202</v>
+      </c>
+      <c r="B473" t="s">
+        <v>0</v>
+      </c>
+      <c r="C473" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D473" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E473" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F473" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G473" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H473" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I473" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J473" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K473" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L473" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M473" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s">
+        <v>202</v>
+      </c>
+      <c r="B474" t="s">
+        <v>0</v>
+      </c>
+      <c r="C474" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D474" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E474" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F474" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G474" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H474" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I474" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J474" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K474" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L474" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M474" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s">
+        <v>202</v>
+      </c>
+      <c r="B475" t="s">
+        <v>0</v>
+      </c>
+      <c r="C475" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D475" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E475" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F475" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G475" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H475" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I475" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J475" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K475" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L475" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M475" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s">
+        <v>203</v>
+      </c>
+      <c r="B476" t="s">
+        <v>0</v>
+      </c>
+      <c r="C476" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D476" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E476" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F476" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G476" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H476" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I476" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J476" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K476" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L476" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M476" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s">
+        <v>203</v>
+      </c>
+      <c r="B477" t="s">
+        <v>0</v>
+      </c>
+      <c r="C477" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D477" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E477" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F477" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G477" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H477" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I477" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J477" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K477" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L477" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M477" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s">
+        <v>203</v>
+      </c>
+      <c r="B478" t="s">
+        <v>0</v>
+      </c>
+      <c r="C478" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D478" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E478" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F478" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G478" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H478" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I478" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J478" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K478" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L478" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M478" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s">
+        <v>204</v>
+      </c>
+      <c r="B479" t="s">
+        <v>0</v>
+      </c>
+      <c r="C479" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D479" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E479" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F479" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G479" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H479" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I479" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J479" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K479" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L479" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M479" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s">
+        <v>204</v>
+      </c>
+      <c r="B480" t="s">
+        <v>0</v>
+      </c>
+      <c r="C480" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D480" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E480" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F480" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G480" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H480" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I480" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J480" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K480" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L480" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M480" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s">
+        <v>204</v>
+      </c>
+      <c r="B481" t="s">
+        <v>0</v>
+      </c>
+      <c r="C481" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D481" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E481" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F481" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G481" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H481" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I481" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J481" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K481" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L481" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M481" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s">
+        <v>205</v>
+      </c>
+      <c r="B482" t="s">
+        <v>0</v>
+      </c>
+      <c r="C482" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D482" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E482" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F482" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G482" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H482" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I482" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J482" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K482" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L482" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M482" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s">
+        <v>205</v>
+      </c>
+      <c r="B483" t="s">
+        <v>0</v>
+      </c>
+      <c r="C483" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D483" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E483" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F483" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G483" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H483" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I483" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J483" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K483" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L483" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M483" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s">
+        <v>205</v>
+      </c>
+      <c r="B484" t="s">
+        <v>0</v>
+      </c>
+      <c r="C484" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D484" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E484" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F484" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G484" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H484" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I484" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J484" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K484" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L484" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M484" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s">
+        <v>206</v>
+      </c>
+      <c r="B485" t="s">
+        <v>0</v>
+      </c>
+      <c r="C485" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D485" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E485" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F485" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G485" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H485" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I485" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J485" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K485" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L485" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M485" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s">
+        <v>206</v>
+      </c>
+      <c r="B486" t="s">
+        <v>0</v>
+      </c>
+      <c r="C486" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D486" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E486" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F486" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G486" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H486" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I486" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J486" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K486" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L486" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M486" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s">
+        <v>206</v>
+      </c>
+      <c r="B487" t="s">
+        <v>0</v>
+      </c>
+      <c r="C487" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D487" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E487" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F487" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G487" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H487" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I487" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J487" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K487" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L487" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M487" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s">
+        <v>207</v>
+      </c>
+      <c r="B488" t="s">
+        <v>0</v>
+      </c>
+      <c r="C488" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D488" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E488" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F488" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G488" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H488" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I488" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J488" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K488" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L488" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M488" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s">
+        <v>207</v>
+      </c>
+      <c r="B489" t="s">
+        <v>0</v>
+      </c>
+      <c r="C489" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D489" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E489" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F489" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G489" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H489" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I489" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J489" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K489" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L489" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M489" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s">
+        <v>207</v>
+      </c>
+      <c r="B490" t="s">
+        <v>0</v>
+      </c>
+      <c r="C490" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D490" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E490" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F490" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G490" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H490" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I490" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J490" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K490" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L490" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M490" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s">
+        <v>208</v>
+      </c>
+      <c r="B491" t="s">
+        <v>0</v>
+      </c>
+      <c r="C491" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D491" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E491" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F491" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G491" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H491" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I491" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J491" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K491" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L491" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M491" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s">
+        <v>208</v>
+      </c>
+      <c r="B492" t="s">
+        <v>0</v>
+      </c>
+      <c r="C492" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D492" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E492" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F492" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G492" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H492" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I492" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J492" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K492" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L492" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M492" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s">
+        <v>208</v>
+      </c>
+      <c r="B493" t="s">
+        <v>0</v>
+      </c>
+      <c r="C493" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D493" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E493" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F493" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G493" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H493" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I493" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J493" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K493" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L493" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M493" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s">
+        <v>209</v>
+      </c>
+      <c r="B494" t="s">
+        <v>0</v>
+      </c>
+      <c r="C494" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D494" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E494" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F494" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G494" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H494" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I494" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J494" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K494" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L494" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M494" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s">
+        <v>209</v>
+      </c>
+      <c r="B495" t="s">
+        <v>0</v>
+      </c>
+      <c r="C495" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D495" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E495" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F495" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G495" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H495" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I495" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J495" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K495" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L495" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M495" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s">
+        <v>209</v>
+      </c>
+      <c r="B496" t="s">
+        <v>0</v>
+      </c>
+      <c r="C496" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D496" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E496" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F496" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G496" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H496" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I496" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J496" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K496" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L496" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M496" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s">
+        <v>210</v>
+      </c>
+      <c r="B497" t="s">
+        <v>0</v>
+      </c>
+      <c r="C497" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D497" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E497" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F497" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G497" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H497" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I497" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J497" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K497" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L497" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M497" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s">
+        <v>210</v>
+      </c>
+      <c r="B498" t="s">
+        <v>0</v>
+      </c>
+      <c r="C498" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D498" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E498" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F498" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G498" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H498" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I498" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J498" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K498" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L498" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M498" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s">
+        <v>210</v>
+      </c>
+      <c r="B499" t="s">
+        <v>0</v>
+      </c>
+      <c r="C499" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D499" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E499" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F499" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G499" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H499" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I499" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J499" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K499" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L499" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M499" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s">
+        <v>211</v>
+      </c>
+      <c r="B500" t="s">
+        <v>0</v>
+      </c>
+      <c r="C500" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D500" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E500" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F500" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G500" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H500" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I500" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J500" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K500" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L500" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M500" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s">
+        <v>211</v>
+      </c>
+      <c r="B501" t="s">
+        <v>0</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D501" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E501" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F501" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G501" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H501" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I501" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J501" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K501" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L501" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M501" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s">
+        <v>211</v>
+      </c>
+      <c r="B502" t="s">
+        <v>0</v>
+      </c>
+      <c r="C502" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D502" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E502" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F502" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G502" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H502" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I502" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J502" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K502" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L502" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M502" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s">
+        <v>212</v>
+      </c>
+      <c r="B503" t="s">
+        <v>0</v>
+      </c>
+      <c r="C503" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D503" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E503" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F503" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G503" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H503" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I503" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J503" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K503" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L503" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M503" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s">
+        <v>212</v>
+      </c>
+      <c r="B504" t="s">
+        <v>0</v>
+      </c>
+      <c r="C504" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D504" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E504" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F504" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G504" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H504" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I504" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J504" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K504" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L504" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M504" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s">
+        <v>212</v>
+      </c>
+      <c r="B505" t="s">
+        <v>0</v>
+      </c>
+      <c r="C505" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D505" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E505" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F505" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G505" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H505" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I505" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J505" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K505" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L505" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M505" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s">
+        <v>213</v>
+      </c>
+      <c r="B506" t="s">
+        <v>0</v>
+      </c>
+      <c r="C506" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D506" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E506" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F506" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G506" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H506" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I506" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J506" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K506" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L506" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M506" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s">
+        <v>213</v>
+      </c>
+      <c r="B507" t="s">
+        <v>0</v>
+      </c>
+      <c r="C507" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D507" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E507" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F507" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G507" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H507" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I507" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J507" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K507" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L507" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M507" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s">
+        <v>213</v>
+      </c>
+      <c r="B508" t="s">
+        <v>0</v>
+      </c>
+      <c r="C508" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D508" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E508" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F508" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G508" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H508" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I508" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J508" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K508" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L508" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M508" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s">
+        <v>214</v>
+      </c>
+      <c r="B509" t="s">
+        <v>0</v>
+      </c>
+      <c r="C509" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D509" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E509" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F509" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G509" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H509" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I509" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J509" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K509" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L509" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M509" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s">
+        <v>214</v>
+      </c>
+      <c r="B510" t="s">
+        <v>0</v>
+      </c>
+      <c r="C510" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D510" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E510" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F510" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G510" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H510" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I510" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J510" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K510" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L510" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M510" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s">
+        <v>214</v>
+      </c>
+      <c r="B511" t="s">
+        <v>0</v>
+      </c>
+      <c r="C511" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D511" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E511" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F511" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G511" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H511" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I511" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J511" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K511" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L511" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M511" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s">
+        <v>215</v>
+      </c>
+      <c r="B512" t="s">
+        <v>0</v>
+      </c>
+      <c r="C512" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D512" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E512" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F512" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G512" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H512" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I512" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J512" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K512" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L512" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M512" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s">
+        <v>215</v>
+      </c>
+      <c r="B513" t="s">
+        <v>0</v>
+      </c>
+      <c r="C513" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D513" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E513" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F513" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G513" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H513" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I513" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J513" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K513" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L513" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M513" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s">
+        <v>215</v>
+      </c>
+      <c r="B514" t="s">
+        <v>0</v>
+      </c>
+      <c r="C514" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D514" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E514" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F514" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G514" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H514" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I514" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J514" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K514" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L514" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M514" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s">
+        <v>216</v>
+      </c>
+      <c r="B515" t="s">
+        <v>0</v>
+      </c>
+      <c r="C515" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D515" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E515" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F515" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G515" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H515" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I515" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J515" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K515" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L515" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M515" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s">
+        <v>216</v>
+      </c>
+      <c r="B516" t="s">
+        <v>0</v>
+      </c>
+      <c r="C516" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D516" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E516" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F516" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G516" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H516" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I516" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J516" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K516" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L516" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M516" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s">
+        <v>216</v>
+      </c>
+      <c r="B517" t="s">
+        <v>0</v>
+      </c>
+      <c r="C517" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D517" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E517" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F517" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G517" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H517" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I517" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J517" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K517" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L517" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M517" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s">
+        <v>217</v>
+      </c>
+      <c r="B518" t="s">
+        <v>0</v>
+      </c>
+      <c r="C518" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D518" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E518" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F518" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G518" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H518" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I518" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J518" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K518" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L518" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M518" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s">
+        <v>217</v>
+      </c>
+      <c r="B519" t="s">
+        <v>0</v>
+      </c>
+      <c r="C519" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D519" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E519" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F519" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G519" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H519" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I519" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J519" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K519" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L519" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M519" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s">
+        <v>217</v>
+      </c>
+      <c r="B520" t="s">
+        <v>0</v>
+      </c>
+      <c r="C520" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D520" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E520" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F520" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G520" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H520" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I520" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J520" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K520" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L520" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M520" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s">
+        <v>218</v>
+      </c>
+      <c r="B521" t="s">
+        <v>0</v>
+      </c>
+      <c r="C521" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D521" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E521" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F521" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G521" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H521" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I521" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J521" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K521" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L521" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M521" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s">
+        <v>218</v>
+      </c>
+      <c r="B522" t="s">
+        <v>0</v>
+      </c>
+      <c r="C522" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D522" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E522" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F522" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G522" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H522" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I522" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J522" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K522" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L522" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M522" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>218</v>
+      </c>
+      <c r="B523" t="s">
+        <v>0</v>
+      </c>
+      <c r="C523" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D523" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E523" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F523" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G523" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H523" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I523" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J523" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K523" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L523" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M523" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s">
+        <v>219</v>
+      </c>
+      <c r="B524" t="s">
+        <v>0</v>
+      </c>
+      <c r="C524" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D524" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E524" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F524" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G524" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H524" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I524" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J524" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K524" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L524" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M524" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s">
+        <v>219</v>
+      </c>
+      <c r="B525" t="s">
+        <v>0</v>
+      </c>
+      <c r="C525" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D525" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E525" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F525" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G525" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H525" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I525" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J525" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K525" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L525" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M525" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s">
+        <v>219</v>
+      </c>
+      <c r="B526" t="s">
+        <v>0</v>
+      </c>
+      <c r="C526" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D526" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E526" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F526" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G526" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H526" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I526" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J526" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K526" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L526" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M526" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s">
+        <v>220</v>
+      </c>
+      <c r="B527" t="s">
+        <v>0</v>
+      </c>
+      <c r="C527" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D527" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E527" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F527" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G527" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H527" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I527" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J527" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K527" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L527" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M527" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s">
+        <v>220</v>
+      </c>
+      <c r="B528" t="s">
+        <v>0</v>
+      </c>
+      <c r="C528" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D528" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E528" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F528" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G528" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H528" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I528" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J528" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K528" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L528" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M528" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s">
+        <v>220</v>
+      </c>
+      <c r="B529" t="s">
+        <v>0</v>
+      </c>
+      <c r="C529" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D529" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E529" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F529" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G529" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H529" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I529" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J529" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K529" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L529" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M529" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s">
+        <v>221</v>
+      </c>
+      <c r="B530" t="s">
+        <v>0</v>
+      </c>
+      <c r="C530" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D530" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E530" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F530" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G530" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H530" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I530" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J530" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K530" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L530" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M530" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>221</v>
+      </c>
+      <c r="B531" t="s">
+        <v>0</v>
+      </c>
+      <c r="C531" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D531" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E531" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F531" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G531" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H531" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I531" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J531" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K531" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L531" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M531" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>221</v>
+      </c>
+      <c r="B532" t="s">
+        <v>0</v>
+      </c>
+      <c r="C532" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D532" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E532" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F532" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G532" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H532" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I532" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J532" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K532" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L532" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M532" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s">
+        <v>222</v>
+      </c>
+      <c r="B533" t="s">
+        <v>0</v>
+      </c>
+      <c r="C533" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D533" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E533" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F533" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G533" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H533" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I533" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J533" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K533" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L533" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M533" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s">
+        <v>222</v>
+      </c>
+      <c r="B534" t="s">
+        <v>0</v>
+      </c>
+      <c r="C534" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D534" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E534" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F534" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G534" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H534" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I534" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J534" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K534" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L534" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M534" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s">
+        <v>222</v>
+      </c>
+      <c r="B535" t="s">
+        <v>0</v>
+      </c>
+      <c r="C535" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D535" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E535" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F535" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G535" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H535" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I535" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J535" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K535" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L535" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M535" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s">
+        <v>223</v>
+      </c>
+      <c r="B536" t="s">
+        <v>0</v>
+      </c>
+      <c r="C536" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D536" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E536" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F536" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G536" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H536" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I536" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J536" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K536" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L536" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M536" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s">
+        <v>223</v>
+      </c>
+      <c r="B537" t="s">
+        <v>0</v>
+      </c>
+      <c r="C537" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D537" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E537" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F537" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G537" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H537" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I537" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J537" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K537" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L537" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M537" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s">
+        <v>223</v>
+      </c>
+      <c r="B538" t="s">
+        <v>0</v>
+      </c>
+      <c r="C538" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D538" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E538" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F538" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G538" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H538" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I538" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J538" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K538" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L538" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M538" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s">
+        <v>224</v>
+      </c>
+      <c r="B539" t="s">
+        <v>0</v>
+      </c>
+      <c r="C539" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D539" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E539" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F539" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G539" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H539" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I539" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J539" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K539" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L539" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M539" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s">
+        <v>224</v>
+      </c>
+      <c r="B540" t="s">
+        <v>0</v>
+      </c>
+      <c r="C540" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D540" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E540" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F540" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G540" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H540" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I540" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J540" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K540" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L540" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M540" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s">
+        <v>224</v>
+      </c>
+      <c r="B541" t="s">
+        <v>0</v>
+      </c>
+      <c r="C541" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D541" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E541" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F541" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G541" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H541" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I541" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J541" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K541" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L541" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M541" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s">
+        <v>225</v>
+      </c>
+      <c r="B542" t="s">
+        <v>0</v>
+      </c>
+      <c r="C542" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D542" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E542" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F542" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G542" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H542" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I542" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J542" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K542" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L542" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M542" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s">
+        <v>225</v>
+      </c>
+      <c r="B543" t="s">
+        <v>0</v>
+      </c>
+      <c r="C543" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D543" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E543" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F543" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G543" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H543" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I543" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J543" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K543" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L543" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M543" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s">
+        <v>225</v>
+      </c>
+      <c r="B544" t="s">
+        <v>0</v>
+      </c>
+      <c r="C544" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D544" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E544" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F544" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G544" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H544" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I544" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J544" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K544" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L544" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M544" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s">
+        <v>226</v>
+      </c>
+      <c r="B545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C545" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D545" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E545" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F545" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G545" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H545" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I545" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J545" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K545" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L545" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M545" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s">
+        <v>226</v>
+      </c>
+      <c r="B546" t="s">
+        <v>0</v>
+      </c>
+      <c r="C546" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D546" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E546" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F546" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G546" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H546" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I546" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J546" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K546" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L546" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M546" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s">
+        <v>226</v>
+      </c>
+      <c r="B547" t="s">
+        <v>0</v>
+      </c>
+      <c r="C547" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D547" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E547" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F547" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G547" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H547" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I547" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J547" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K547" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L547" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M547" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s">
+        <v>227</v>
+      </c>
+      <c r="B548" t="s">
+        <v>0</v>
+      </c>
+      <c r="C548" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D548" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E548" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F548" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G548" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H548" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I548" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J548" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K548" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L548" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M548" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s">
+        <v>227</v>
+      </c>
+      <c r="B549" t="s">
+        <v>0</v>
+      </c>
+      <c r="C549" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D549" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E549" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F549" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G549" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H549" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I549" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J549" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K549" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L549" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M549" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s">
+        <v>227</v>
+      </c>
+      <c r="B550" t="s">
+        <v>0</v>
+      </c>
+      <c r="C550" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D550" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E550" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F550" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G550" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H550" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I550" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J550" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K550" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L550" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M550" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s">
+        <v>228</v>
+      </c>
+      <c r="B551" t="s">
+        <v>0</v>
+      </c>
+      <c r="C551" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D551" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E551" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F551" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G551" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H551" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I551" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J551" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K551" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L551" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M551" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s">
+        <v>228</v>
+      </c>
+      <c r="B552" t="s">
+        <v>0</v>
+      </c>
+      <c r="C552" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D552" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E552" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F552" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G552" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H552" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I552" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J552" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K552" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L552" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M552" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s">
+        <v>228</v>
+      </c>
+      <c r="B553" t="s">
+        <v>0</v>
+      </c>
+      <c r="C553" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D553" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E553" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F553" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G553" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H553" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I553" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J553" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K553" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L553" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M553" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s">
+        <v>229</v>
+      </c>
+      <c r="B554" t="s">
+        <v>0</v>
+      </c>
+      <c r="C554" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D554" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E554" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F554" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G554" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H554" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I554" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J554" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K554" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L554" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M554" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s">
+        <v>229</v>
+      </c>
+      <c r="B555" t="s">
+        <v>0</v>
+      </c>
+      <c r="C555" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D555" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E555" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F555" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G555" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H555" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I555" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J555" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K555" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L555" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M555" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s">
+        <v>229</v>
+      </c>
+      <c r="B556" t="s">
+        <v>0</v>
+      </c>
+      <c r="C556" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D556" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E556" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F556" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G556" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H556" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I556" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J556" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K556" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L556" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M556" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_41473.xlsx
+++ b/data/sheet/msg_41473.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4201" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4231" uniqueCount="231">
   <si>
     <t/>
   </si>
@@ -713,6 +713,9 @@
   <si>
     <t>2022-07-01 17:38:09</t>
   </si>
+  <si>
+    <t>2022-07-02 13:54:44</t>
+  </si>
 </sst>
 </file>
 
@@ -1064,7 +1067,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I186"/>
+  <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6469,6 +6472,35 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>230</v>
+      </c>
+      <c r="B187" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187" t="s">
+        <v>11</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.656762885E9</v>
+      </c>
+      <c r="E187" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6476,7 +6508,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X186"/>
+  <dimension ref="A1:X187"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0"/>
   </sheetViews>
@@ -20251,6 +20283,80 @@
         <v>0</v>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>230</v>
+      </c>
+      <c r="B187" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1.656762867E9</v>
+      </c>
+      <c r="K187" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="L187" t="s">
+        <v>0</v>
+      </c>
+      <c r="M187" t="s">
+        <v>45</v>
+      </c>
+      <c r="N187" t="s">
+        <v>0</v>
+      </c>
+      <c r="O187" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P187" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R187" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S187" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T187" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U187" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V187" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W187" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X187" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20258,7 +20364,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M556"/>
+  <dimension ref="A1:M559"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A278" sqref="A278:XFD280"/>
@@ -43066,6 +43172,129 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="557">
+      <c r="A557" t="s">
+        <v>230</v>
+      </c>
+      <c r="B557" t="s">
+        <v>0</v>
+      </c>
+      <c r="C557" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D557" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E557" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F557" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G557" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H557" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I557" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J557" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K557" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L557" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M557" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s">
+        <v>230</v>
+      </c>
+      <c r="B558" t="s">
+        <v>0</v>
+      </c>
+      <c r="C558" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D558" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E558" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F558" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G558" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H558" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I558" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J558" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K558" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L558" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M558" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s">
+        <v>230</v>
+      </c>
+      <c r="B559" t="s">
+        <v>0</v>
+      </c>
+      <c r="C559" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D559" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E559" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F559" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G559" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H559" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I559" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J559" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K559" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L559" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M559" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_41473.xlsx
+++ b/data/sheet/msg_41473.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4231" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4351" uniqueCount="235">
   <si>
     <t/>
   </si>
@@ -716,6 +716,18 @@
   <si>
     <t>2022-07-02 13:54:44</t>
   </si>
+  <si>
+    <t>2022-07-04 21:08:40</t>
+  </si>
+  <si>
+    <t>2022-07-05 10:47:52</t>
+  </si>
+  <si>
+    <t>2022-07-05 11:38:52</t>
+  </si>
+  <si>
+    <t>2022-07-05 18:08:15</t>
+  </si>
 </sst>
 </file>
 
@@ -1067,7 +1079,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I187"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6501,6 +6513,122 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>231</v>
+      </c>
+      <c r="B188" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.656961723E9</v>
+      </c>
+      <c r="E188" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>232</v>
+      </c>
+      <c r="B189" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.657010878E9</v>
+      </c>
+      <c r="E189" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>233</v>
+      </c>
+      <c r="B190" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190" t="s">
+        <v>11</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.657013938E9</v>
+      </c>
+      <c r="E190" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>234</v>
+      </c>
+      <c r="B191" t="s">
+        <v>0</v>
+      </c>
+      <c r="C191" t="s">
+        <v>11</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1.657037303E9</v>
+      </c>
+      <c r="E191" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6508,7 +6636,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X187"/>
+  <dimension ref="A1:X191"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0"/>
   </sheetViews>
@@ -20357,6 +20485,302 @@
         <v>0</v>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>231</v>
+      </c>
+      <c r="B188" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1.656961667E9</v>
+      </c>
+      <c r="K188" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="L188" t="s">
+        <v>0</v>
+      </c>
+      <c r="M188" t="s">
+        <v>45</v>
+      </c>
+      <c r="N188" t="s">
+        <v>0</v>
+      </c>
+      <c r="O188" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X188" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>232</v>
+      </c>
+      <c r="B189" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1.657010831E9</v>
+      </c>
+      <c r="K189" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="L189" t="s">
+        <v>0</v>
+      </c>
+      <c r="M189" t="s">
+        <v>45</v>
+      </c>
+      <c r="N189" t="s">
+        <v>0</v>
+      </c>
+      <c r="O189" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X189" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>233</v>
+      </c>
+      <c r="B190" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1.657013925E9</v>
+      </c>
+      <c r="K190" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L190" t="s">
+        <v>0</v>
+      </c>
+      <c r="M190" t="s">
+        <v>45</v>
+      </c>
+      <c r="N190" t="s">
+        <v>0</v>
+      </c>
+      <c r="O190" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X190" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>234</v>
+      </c>
+      <c r="B191" t="s">
+        <v>0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G191" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1.657037247E9</v>
+      </c>
+      <c r="K191" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="L191" t="s">
+        <v>0</v>
+      </c>
+      <c r="M191" t="s">
+        <v>45</v>
+      </c>
+      <c r="N191" t="s">
+        <v>0</v>
+      </c>
+      <c r="O191" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X191" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20364,7 +20788,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M559"/>
+  <dimension ref="A1:M571"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A278" sqref="A278:XFD280"/>
@@ -43295,6 +43719,498 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="560">
+      <c r="A560" t="s">
+        <v>231</v>
+      </c>
+      <c r="B560" t="s">
+        <v>0</v>
+      </c>
+      <c r="C560" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D560" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E560" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F560" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G560" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H560" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I560" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J560" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K560" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L560" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M560" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s">
+        <v>231</v>
+      </c>
+      <c r="B561" t="s">
+        <v>0</v>
+      </c>
+      <c r="C561" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D561" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E561" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F561" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G561" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H561" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I561" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J561" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K561" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L561" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M561" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s">
+        <v>231</v>
+      </c>
+      <c r="B562" t="s">
+        <v>0</v>
+      </c>
+      <c r="C562" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D562" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E562" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F562" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G562" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H562" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I562" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J562" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K562" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L562" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M562" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s">
+        <v>232</v>
+      </c>
+      <c r="B563" t="s">
+        <v>0</v>
+      </c>
+      <c r="C563" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D563" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E563" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F563" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G563" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H563" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I563" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J563" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K563" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L563" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M563" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s">
+        <v>232</v>
+      </c>
+      <c r="B564" t="s">
+        <v>0</v>
+      </c>
+      <c r="C564" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D564" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E564" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F564" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G564" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H564" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I564" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J564" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K564" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L564" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M564" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s">
+        <v>232</v>
+      </c>
+      <c r="B565" t="s">
+        <v>0</v>
+      </c>
+      <c r="C565" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D565" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E565" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F565" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G565" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H565" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I565" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J565" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K565" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L565" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M565" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s">
+        <v>233</v>
+      </c>
+      <c r="B566" t="s">
+        <v>0</v>
+      </c>
+      <c r="C566" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D566" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E566" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F566" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G566" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H566" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I566" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J566" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K566" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L566" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M566" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s">
+        <v>233</v>
+      </c>
+      <c r="B567" t="s">
+        <v>0</v>
+      </c>
+      <c r="C567" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D567" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E567" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F567" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G567" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H567" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I567" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J567" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K567" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L567" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M567" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s">
+        <v>233</v>
+      </c>
+      <c r="B568" t="s">
+        <v>0</v>
+      </c>
+      <c r="C568" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D568" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E568" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F568" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G568" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H568" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I568" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J568" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K568" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L568" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M568" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s">
+        <v>234</v>
+      </c>
+      <c r="B569" t="s">
+        <v>0</v>
+      </c>
+      <c r="C569" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D569" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E569" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F569" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G569" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H569" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I569" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J569" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K569" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L569" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M569" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s">
+        <v>234</v>
+      </c>
+      <c r="B570" t="s">
+        <v>0</v>
+      </c>
+      <c r="C570" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D570" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E570" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F570" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G570" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H570" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I570" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J570" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K570" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L570" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M570" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s">
+        <v>234</v>
+      </c>
+      <c r="B571" t="s">
+        <v>0</v>
+      </c>
+      <c r="C571" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D571" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E571" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F571" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G571" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H571" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I571" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="J571" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="K571" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L571" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M571" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_41473.xlsx
+++ b/data/sheet/msg_41473.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4351" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4393" uniqueCount="236">
   <si>
     <t/>
   </si>
@@ -728,6 +728,9 @@
   <si>
     <t>2022-07-05 18:08:15</t>
   </si>
+  <si>
+    <t>2022-10-27 20:27:14</t>
+  </si>
 </sst>
 </file>
 
@@ -1079,7 +1082,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I191"/>
+  <dimension ref="A1:I192"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6629,6 +6632,35 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>235</v>
+      </c>
+      <c r="B192" t="s">
+        <v>0</v>
+      </c>
+      <c r="C192" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.666895238E9</v>
+      </c>
+      <c r="E192" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6636,7 +6668,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X191"/>
+  <dimension ref="A1:X192"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0"/>
   </sheetViews>
@@ -20781,6 +20813,80 @@
         <v>0</v>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>235</v>
+      </c>
+      <c r="B192" t="s">
+        <v>0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>527.0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1.66689481E9</v>
+      </c>
+      <c r="K192" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="L192" t="s">
+        <v>0</v>
+      </c>
+      <c r="M192" t="s">
+        <v>45</v>
+      </c>
+      <c r="N192" t="s">
+        <v>0</v>
+      </c>
+      <c r="O192" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P192" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R192" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S192" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T192" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U192" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V192" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W192" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X192" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20788,7 +20894,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M571"/>
+  <dimension ref="A1:M577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A278" sqref="A278:XFD280"/>
@@ -44211,6 +44317,252 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="572">
+      <c r="A572" t="s">
+        <v>235</v>
+      </c>
+      <c r="B572" t="s">
+        <v>0</v>
+      </c>
+      <c r="C572" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D572" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="E572" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F572" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G572" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H572" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I572" t="n">
+        <v>10752.0</v>
+      </c>
+      <c r="J572" t="n">
+        <v>8192.0</v>
+      </c>
+      <c r="K572" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L572" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M572" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s">
+        <v>235</v>
+      </c>
+      <c r="B573" t="s">
+        <v>0</v>
+      </c>
+      <c r="C573" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D573" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="E573" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F573" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G573" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H573" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I573" t="n">
+        <v>10752.0</v>
+      </c>
+      <c r="J573" t="n">
+        <v>8192.0</v>
+      </c>
+      <c r="K573" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L573" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M573" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s">
+        <v>235</v>
+      </c>
+      <c r="B574" t="s">
+        <v>0</v>
+      </c>
+      <c r="C574" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D574" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="E574" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F574" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="G574" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="H574" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I574" t="n">
+        <v>10752.0</v>
+      </c>
+      <c r="J574" t="n">
+        <v>8192.0</v>
+      </c>
+      <c r="K574" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L574" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M574" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s">
+        <v>235</v>
+      </c>
+      <c r="B575" t="s">
+        <v>0</v>
+      </c>
+      <c r="C575" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D575" t="n">
+        <v>1.9110459090465E13</v>
+      </c>
+      <c r="E575" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F575" t="n">
+        <v>10016.0</v>
+      </c>
+      <c r="G575" t="n">
+        <v>2.69627393E8</v>
+      </c>
+      <c r="H575" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I575" t="n">
+        <v>10752.0</v>
+      </c>
+      <c r="J575" t="n">
+        <v>8192.0</v>
+      </c>
+      <c r="K575" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L575" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M575" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s">
+        <v>235</v>
+      </c>
+      <c r="B576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C576" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D576" t="n">
+        <v>1.9110459090976E13</v>
+      </c>
+      <c r="E576" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F576" t="n">
+        <v>10016.0</v>
+      </c>
+      <c r="G576" t="n">
+        <v>2.69627393E8</v>
+      </c>
+      <c r="H576" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I576" t="n">
+        <v>10752.0</v>
+      </c>
+      <c r="J576" t="n">
+        <v>8192.0</v>
+      </c>
+      <c r="K576" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L576" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M576" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s">
+        <v>235</v>
+      </c>
+      <c r="B577" t="s">
+        <v>0</v>
+      </c>
+      <c r="C577" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D577" t="n">
+        <v>1.9110459093129E13</v>
+      </c>
+      <c r="E577" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F577" t="n">
+        <v>10016.0</v>
+      </c>
+      <c r="G577" t="n">
+        <v>2.69627393E8</v>
+      </c>
+      <c r="H577" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I577" t="n">
+        <v>10752.0</v>
+      </c>
+      <c r="J577" t="n">
+        <v>8192.0</v>
+      </c>
+      <c r="K577" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L577" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M577" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
